--- a/nuevaHojaInstruccion.xlsx
+++ b/nuevaHojaInstruccion.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
   </bookViews>
   <sheets>
-    <sheet name="9" sheetId="1" r:id="rId1"/>
-    <sheet name="010224" sheetId="2" r:id="rId2"/>
+    <sheet name="065" sheetId="1" r:id="rId1"/>
+    <sheet name="170724" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'7'!$A$1:$J$62</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="211">
   <si>
     <t>HOJA DE INSTRUCCIÓN DE INSPECCION/RECIBO DE MATERIA PRIMA</t>
   </si>
@@ -794,40 +794,61 @@
     <t>65 Ra Max</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1 de febrero de 2024</t>
-  </si>
-  <si>
-    <t>Lamina en Cinta. Cal. 20 ASTM A1008(91532)</t>
+    <t>RUGOSIDAD  µin</t>
+  </si>
+  <si>
+    <t>Dureza Rb</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>17 de julio de 2024</t>
+  </si>
+  <si>
+    <t>Lamina en Hoja. Cal. 22 A1008-DS</t>
   </si>
   <si>
     <t>Serviacero Planos S de RL de CV</t>
   </si>
   <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>09/02/2024</t>
-  </si>
-  <si>
-    <t>,0359" ± ,0015"</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>20/798</t>
+    <t>LE 300019</t>
+  </si>
+  <si>
+    <t>23/05/2024</t>
+  </si>
+  <si>
+    <t>,0299" ± ,0015"</t>
+  </si>
+  <si>
+    <t>241909306</t>
+  </si>
+  <si>
+    <t>2427134</t>
+  </si>
+  <si>
+    <t>114/2060</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>sadsad</t>
+  </si>
+  <si>
+    <t>sadsa</t>
+  </si>
+  <si>
+    <t>dsad</t>
+  </si>
+  <si>
+    <t>asdsadsa</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>dsadsa</t>
   </si>
   <si>
     <t>√</t>
@@ -842,28 +863,10 @@
     <t>JCSistemas</t>
   </si>
   <si>
-    <t>Cal 20   ,0359" ± ,0015"</t>
+    <t>Cal 22   ,0299" ± ,0015"</t>
   </si>
   <si>
     <t>R</t>
-  </si>
-  <si>
-    <t>SE LIBERAN 20 PIEZAS, CON UN TOTAL DE ___ KG</t>
-  </si>
-  <si>
-    <t>Lamina en Cinta. Cal. 20 ASTM A1008(91532) sip</t>
-  </si>
-  <si>
-    <t>,0359" ± ,0015" hy</t>
-  </si>
-  <si>
-    <t>1852</t>
-  </si>
-  <si>
-    <t>03030</t>
-  </si>
-  <si>
-    <t>010</t>
   </si>
 </sst>
 </file>
@@ -1977,6 +1980,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <top style="thin"/>
     </border>
     <border>
@@ -2016,29 +2069,11 @@
       <left style="medium"/>
       <top style="medium"/>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="407">
+  <cellXfs count="371">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2324,6 +2359,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2366,21 +2407,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2542,263 +2568,398 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="87" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="87" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="84" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="91" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="88" xfId="0" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <protection locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="88" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="92" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2809,252 +2970,62 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <protection locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4228,21 +4199,21 @@
   </sheetPr>
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61:D61"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="3.28515625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="5.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="3.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="3.28515625" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" width="13.140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="20.85546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="10.28515625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="11.28515625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="16.140625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="5.5703125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="3.7109375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="11.85546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4302,10 +4273,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="193" t="s">
+      <c r="G5" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="193"/>
+      <c r="H5" s="190"/>
       <c r="I5" s="8"/>
       <c r="J5" s="10"/>
     </row>
@@ -4313,15 +4284,15 @@
       <c r="A6" s="7"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="194" t="s">
-        <v>187</v>
-      </c>
-      <c r="H6" s="195"/>
+      <c r="G6" s="191" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="192"/>
       <c r="I6" s="8"/>
       <c r="J6" s="10"/>
     </row>
@@ -4369,23 +4340,23 @@
     </row>
     <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
-      <c r="B10" s="196" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="197"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="199" t="s">
-        <v>189</v>
-      </c>
-      <c r="F10" s="200"/>
-      <c r="G10" s="201" t="s">
+      <c r="B10" s="193" t="s">
         <v>190</v>
       </c>
-      <c r="H10" s="192"/>
-      <c r="I10" s="191" t="s">
+      <c r="C10" s="194"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="196" t="s">
         <v>191</v>
       </c>
-      <c r="J10" s="192"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="198" t="s">
+        <v>192</v>
+      </c>
+      <c r="H10" s="189"/>
+      <c r="I10" s="188" t="s">
+        <v>193</v>
+      </c>
+      <c r="J10" s="189"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
@@ -4434,21 +4405,21 @@
     <row r="14" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="32" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="33" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="33" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G14" s="28"/>
-      <c r="H14" s="159" t="s">
-        <v>194</v>
-      </c>
-      <c r="I14" s="160"/>
+      <c r="H14" s="161" t="s">
+        <v>197</v>
+      </c>
+      <c r="I14" s="162"/>
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4475,15 +4446,15 @@
     </row>
     <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
-      <c r="B17" s="161" t="s">
+      <c r="B17" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="161"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
       <c r="I17" s="36"/>
       <c r="J17" s="6"/>
     </row>
@@ -4520,92 +4491,92 @@
         <v>13</v>
       </c>
       <c r="D20" s="44"/>
-      <c r="E20" s="162" t="s">
+      <c r="E20" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
       <c r="I20" s="45"/>
       <c r="J20" s="31"/>
     </row>
     <row r="21" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" t="s" s="327">
-        <v>207</v>
-      </c>
-      <c r="C21" t="s" s="331">
-        <v>208</v>
+      <c r="B21" t="s" s="241">
+        <v>198</v>
+      </c>
+      <c r="C21" t="s" s="245">
+        <v>198</v>
       </c>
       <c r="D21" s="44"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
       <c r="I21" s="45"/>
       <c r="J21" s="31"/>
     </row>
     <row r="22" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" t="s" s="335">
-        <v>195</v>
-      </c>
-      <c r="C22" t="s" s="339">
-        <v>195</v>
+      <c r="B22" t="s" s="249">
+        <v>198</v>
+      </c>
+      <c r="C22" t="s" s="253">
+        <v>198</v>
       </c>
       <c r="D22" s="44"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="165"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
       <c r="I22" s="45"/>
       <c r="J22" s="31"/>
     </row>
     <row r="23" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" t="s" s="343">
-        <v>195</v>
-      </c>
-      <c r="C23" t="s" s="347">
-        <v>195</v>
+      <c r="B23" t="s" s="257">
+        <v>199</v>
+      </c>
+      <c r="C23" t="s" s="261">
+        <v>199</v>
       </c>
       <c r="D23" s="44"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="165"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
       <c r="I23" s="45"/>
       <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" t="s" s="351">
-        <v>195</v>
-      </c>
-      <c r="C24" t="s" s="355">
-        <v>195</v>
+      <c r="B24" t="s" s="265">
+        <v>198</v>
+      </c>
+      <c r="C24" t="s" s="269">
+        <v>198</v>
       </c>
       <c r="D24" s="44"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="165"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="165"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
       <c r="I24" s="45"/>
       <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" t="s" s="359">
-        <v>196</v>
-      </c>
-      <c r="C25" t="s" s="363">
-        <v>196</v>
+      <c r="B25" t="s" s="273">
+        <v>198</v>
+      </c>
+      <c r="C25" t="s" s="277">
+        <v>199</v>
       </c>
       <c r="D25" s="44"/>
-      <c r="E25" s="164"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
-      <c r="H25" s="165"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
       <c r="I25" s="45"/>
       <c r="J25" s="31"/>
       <c r="K25" t="s">
@@ -4614,82 +4585,82 @@
     </row>
     <row r="26" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" t="s" s="367">
-        <v>195</v>
-      </c>
-      <c r="C26" t="s" s="371">
-        <v>195</v>
+      <c r="B26" t="s" s="281">
+        <v>198</v>
+      </c>
+      <c r="C26" t="s" s="285">
+        <v>198</v>
       </c>
       <c r="D26" s="44"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="165"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
       <c r="I26" s="45"/>
       <c r="J26" s="31"/>
       <c r="L26" s="47"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" t="s" s="375">
-        <v>195</v>
-      </c>
-      <c r="C27" t="s" s="379">
-        <v>195</v>
+      <c r="B27" t="s" s="289">
+        <v>200</v>
+      </c>
+      <c r="C27" t="s" s="293">
+        <v>198</v>
       </c>
       <c r="D27" s="44"/>
-      <c r="E27" s="164"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="165"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
       <c r="I27" s="45"/>
       <c r="J27" s="31"/>
     </row>
     <row r="28" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" t="s" s="383">
-        <v>195</v>
-      </c>
-      <c r="C28" t="s" s="387">
-        <v>195</v>
+      <c r="B28" t="s" s="297">
+        <v>198</v>
+      </c>
+      <c r="C28" t="s" s="301">
+        <v>198</v>
       </c>
       <c r="D28" s="44"/>
-      <c r="E28" s="164"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="165"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
       <c r="I28" s="45"/>
       <c r="J28" s="31"/>
     </row>
     <row r="29" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" t="s" s="391">
-        <v>195</v>
-      </c>
-      <c r="C29" t="s" s="395">
-        <v>195</v>
+      <c r="B29" t="s" s="305">
+        <v>198</v>
+      </c>
+      <c r="C29" t="s" s="309">
+        <v>201</v>
       </c>
       <c r="D29" s="44"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
       <c r="I29" s="45"/>
       <c r="J29" s="31"/>
     </row>
     <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" t="s" s="399">
-        <v>195</v>
-      </c>
-      <c r="C30" t="s" s="403">
-        <v>195</v>
+      <c r="B30" t="s" s="313">
+        <v>198</v>
+      </c>
+      <c r="C30" t="s" s="317">
+        <v>198</v>
       </c>
       <c r="D30" s="44"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="169"/>
+      <c r="H30" s="169"/>
       <c r="I30" s="45"/>
       <c r="J30" s="31"/>
     </row>
@@ -4719,42 +4690,42 @@
     </row>
     <row r="33" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
-      <c r="B33" s="161" t="s">
+      <c r="B33" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="161"/>
-      <c r="D33" s="161"/>
-      <c r="E33" s="161"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="168"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="163"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="170"/>
       <c r="J33" s="22"/>
     </row>
     <row r="34" spans="1:10" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="56"/>
-      <c r="B34" s="169"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="170"/>
+      <c r="B34" s="171"/>
+      <c r="C34" s="171"/>
+      <c r="D34" s="171"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="172"/>
       <c r="J34" s="40"/>
     </row>
     <row r="35" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="171" t="s">
-        <v>204</v>
-      </c>
-      <c r="C35" s="172"/>
-      <c r="D35" s="172"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
+      <c r="B35" s="173" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" s="174"/>
+      <c r="D35" s="174"/>
+      <c r="E35" s="174"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="174"/>
+      <c r="I35" s="174"/>
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4810,8 +4781,8 @@
       <c r="B40" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="317" t="s">
-        <v>198</v>
+      <c r="C40" s="60" t="s">
+        <v>205</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="8"/>
@@ -4819,8 +4790,8 @@
       <c r="G40" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="60" t="s">
-        <v>195</v>
+      <c r="H40" s="361" t="s">
+        <v>198</v>
       </c>
       <c r="I40" s="26"/>
       <c r="J40" s="10"/>
@@ -4831,66 +4802,90 @@
       <c r="C41" s="58"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
+      <c r="F41" s="8"/>
       <c r="G41" s="58"/>
       <c r="H41" s="58"/>
       <c r="I41" s="58"/>
       <c r="J41" s="10"/>
     </row>
-    <row r="42" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="B42" s="173" t="s">
+      <c r="B42" s="238" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="174"/>
-      <c r="D42" s="174"/>
-      <c r="E42" s="174"/>
-      <c r="F42" s="174"/>
-      <c r="G42" s="174"/>
-      <c r="H42" s="174"/>
-      <c r="I42" s="175"/>
+      <c r="C42" s="239"/>
+      <c r="D42" s="239"/>
+      <c r="E42" s="239"/>
+      <c r="F42" s="239"/>
+      <c r="G42" s="240"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
       <c r="J42" s="10"/>
     </row>
     <row r="43" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
-      <c r="B43" s="176" t="s">
-        <v>200</v>
-      </c>
-      <c r="C43" s="177"/>
-      <c r="D43" s="177"/>
-      <c r="E43" s="177"/>
-      <c r="F43" s="177"/>
-      <c r="G43" s="177"/>
-      <c r="H43" s="177"/>
-      <c r="I43" s="177"/>
+      <c r="B43" s="236" t="s">
+        <v>207</v>
+      </c>
+      <c r="C43" s="236"/>
+      <c r="D43" s="236"/>
+      <c r="E43" s="236"/>
+      <c r="F43" s="236"/>
+      <c r="G43" s="236"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
       <c r="J43" s="10"/>
     </row>
     <row r="44" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
+      <c r="B44" s="234" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" t="s" s="321">
+        <v>198</v>
+      </c>
+      <c r="D44" t="s" s="329">
+        <v>202</v>
+      </c>
+      <c r="E44" t="s" s="337">
+        <v>198</v>
+      </c>
+      <c r="F44" t="s" s="345">
+        <v>201</v>
+      </c>
+      <c r="G44" t="s" s="353">
+        <v>198</v>
+      </c>
+      <c r="H44" s="237"/>
+      <c r="I44" s="49"/>
       <c r="J44" s="10"/>
     </row>
     <row r="45" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
+      <c r="B45" s="234" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" t="s" s="325">
+        <v>201</v>
+      </c>
+      <c r="D45" t="s" s="333">
+        <v>203</v>
+      </c>
+      <c r="E45" t="s" s="341">
+        <v>200</v>
+      </c>
+      <c r="F45" t="s" s="349">
+        <v>204</v>
+      </c>
+      <c r="G45" t="s" s="357">
+        <v>198</v>
+      </c>
+      <c r="H45" s="235"/>
+      <c r="I45" s="8"/>
       <c r="J45" s="10"/>
     </row>
     <row r="46" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="57"/>
       <c r="C46" s="57"/>
       <c r="D46" s="57"/>
@@ -4899,7 +4894,7 @@
       <c r="G46" s="57"/>
       <c r="H46" s="57"/>
       <c r="I46" s="57"/>
-      <c r="J46" s="10"/>
+      <c r="J46" s="8"/>
     </row>
     <row r="47" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
@@ -4920,11 +4915,11 @@
       <c r="D48" s="28"/>
       <c r="E48" s="61"/>
       <c r="F48" s="62"/>
-      <c r="G48" s="178" t="s">
+      <c r="G48" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="H48" s="179"/>
-      <c r="I48" s="180"/>
+      <c r="H48" s="176"/>
+      <c r="I48" s="177"/>
       <c r="J48" s="10"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4934,9 +4929,9 @@
       <c r="D49" s="28"/>
       <c r="E49" s="61"/>
       <c r="F49" s="62"/>
-      <c r="G49" s="181"/>
-      <c r="H49" s="182"/>
-      <c r="I49" s="183"/>
+      <c r="G49" s="178"/>
+      <c r="H49" s="179"/>
+      <c r="I49" s="180"/>
       <c r="J49" s="10"/>
     </row>
     <row r="50" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4946,9 +4941,9 @@
       <c r="D50" s="28"/>
       <c r="E50" s="61"/>
       <c r="F50" s="62"/>
-      <c r="G50" s="181"/>
-      <c r="H50" s="182"/>
-      <c r="I50" s="183"/>
+      <c r="G50" s="178"/>
+      <c r="H50" s="179"/>
+      <c r="I50" s="180"/>
       <c r="J50" s="10"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4958,9 +4953,9 @@
       <c r="D51" s="28"/>
       <c r="E51" s="61"/>
       <c r="F51" s="62"/>
-      <c r="G51" s="181"/>
-      <c r="H51" s="182"/>
-      <c r="I51" s="183"/>
+      <c r="G51" s="178"/>
+      <c r="H51" s="179"/>
+      <c r="I51" s="180"/>
       <c r="J51" s="10"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4970,9 +4965,9 @@
       <c r="D52" s="28"/>
       <c r="E52" s="61"/>
       <c r="F52" s="62"/>
-      <c r="G52" s="181"/>
-      <c r="H52" s="182"/>
-      <c r="I52" s="183"/>
+      <c r="G52" s="178"/>
+      <c r="H52" s="179"/>
+      <c r="I52" s="180"/>
       <c r="J52" s="10"/>
     </row>
     <row r="53" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4982,9 +4977,9 @@
       <c r="D53" s="28"/>
       <c r="E53" s="61"/>
       <c r="F53" s="62"/>
-      <c r="G53" s="181"/>
-      <c r="H53" s="182"/>
-      <c r="I53" s="183"/>
+      <c r="G53" s="178"/>
+      <c r="H53" s="179"/>
+      <c r="I53" s="180"/>
       <c r="J53" s="10"/>
     </row>
     <row r="54" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4994,9 +4989,9 @@
       <c r="D54" s="28"/>
       <c r="E54" s="61"/>
       <c r="F54" s="62"/>
-      <c r="G54" s="184"/>
-      <c r="H54" s="185"/>
-      <c r="I54" s="186"/>
+      <c r="G54" s="181"/>
+      <c r="H54" s="182"/>
+      <c r="I54" s="183"/>
       <c r="J54" s="10"/>
     </row>
     <row r="55" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5047,11 +5042,11 @@
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="44"/>
-      <c r="B59" s="187" t="s">
+      <c r="B59" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="187"/>
-      <c r="D59" s="187"/>
+      <c r="C59" s="184"/>
+      <c r="D59" s="184"/>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
       <c r="G59" s="28"/>
@@ -5061,9 +5056,9 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="44"/>
-      <c r="B60" s="187"/>
-      <c r="C60" s="187"/>
-      <c r="D60" s="187"/>
+      <c r="B60" s="184"/>
+      <c r="C60" s="184"/>
+      <c r="D60" s="184"/>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
       <c r="G60" s="28"/>
@@ -5073,11 +5068,11 @@
     </row>
     <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="44"/>
-      <c r="B61" s="188" t="s">
-        <v>201</v>
-      </c>
-      <c r="C61" s="189"/>
-      <c r="D61" s="190"/>
+      <c r="B61" s="185" t="s">
+        <v>208</v>
+      </c>
+      <c r="C61" s="186"/>
+      <c r="D61" s="187"/>
       <c r="E61" s="67"/>
       <c r="F61" s="67"/>
       <c r="G61" s="67"/>
@@ -5086,26 +5081,27 @@
       <c r="J61" s="68"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="157" t="s">
+      <c r="B62" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="157"/>
-      <c r="D62" s="157"/>
-      <c r="E62" s="158"/>
-      <c r="F62" s="158"/>
+      <c r="C62" s="159"/>
+      <c r="D62" s="159"/>
+      <c r="E62" s="160"/>
+      <c r="F62" s="160"/>
       <c r="G62" s="67"/>
       <c r="H62" s="67"/>
       <c r="I62" s="67"/>
       <c r="J62" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="18">
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B42:G42"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="H14:I14"/>
@@ -5113,13 +5109,35 @@
     <mergeCell ref="E20:H30"/>
     <mergeCell ref="B33:I34"/>
     <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B43:I43"/>
     <mergeCell ref="G48:I54"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:D61"/>
   </mergeCells>
+  <conditionalFormatting sqref="D44:G44">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="between">
+      <formula>0</formula>
+      <formula>65</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:G45">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="between">
+      <formula>35</formula>
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="between">
+      <formula>0</formula>
+      <formula>65</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.62992125984251968" right="0.47244094488188981" top="0.27559055118110237" bottom="0.47244094488188981" header="0.15748031496062992" footer="0"/>
   <pageSetup scale="86" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -5142,26 +5160,26 @@
   </sheetPr>
   <dimension ref="A1:T84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A67" zoomScale="120" zoomScaleNormal="150" zoomScaleSheetLayoutView="120" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A67" zoomScale="120" zoomScaleNormal="150" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="R83" sqref="R83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="3.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="4.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="4.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="3.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="3.140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="11.28515625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="3.85546875" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.42578125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="4.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="9.0" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="4.5703125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="8.7109375" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.42578125" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.28515625" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="3.140625" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="6.28515625" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.85546875" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="3.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -5197,94 +5215,94 @@
       <c r="O2" s="68"/>
     </row>
     <row r="3" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="223"/>
-      <c r="B3" s="226" t="s">
+      <c r="A3" s="220"/>
+      <c r="B3" s="223" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="226"/>
-      <c r="J3" s="226"/>
-      <c r="K3" s="226"/>
-      <c r="L3" s="226"/>
-      <c r="M3" s="226"/>
-      <c r="N3" s="227"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="224"/>
       <c r="O3" s="70"/>
     </row>
     <row r="4" spans="1:15" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="224"/>
-      <c r="B4" s="228"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="228"/>
-      <c r="I4" s="228"/>
-      <c r="J4" s="228"/>
-      <c r="K4" s="228"/>
-      <c r="L4" s="228"/>
-      <c r="M4" s="228"/>
-      <c r="N4" s="229"/>
+      <c r="A4" s="221"/>
+      <c r="B4" s="225"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="225"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="225"/>
+      <c r="H4" s="225"/>
+      <c r="I4" s="225"/>
+      <c r="J4" s="225"/>
+      <c r="K4" s="225"/>
+      <c r="L4" s="225"/>
+      <c r="M4" s="225"/>
+      <c r="N4" s="226"/>
       <c r="O4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="225"/>
-      <c r="B5" s="230"/>
-      <c r="C5" s="230"/>
-      <c r="D5" s="230"/>
-      <c r="E5" s="230"/>
-      <c r="F5" s="230"/>
-      <c r="G5" s="230"/>
-      <c r="H5" s="230"/>
-      <c r="I5" s="230"/>
-      <c r="J5" s="230"/>
-      <c r="K5" s="230"/>
-      <c r="L5" s="230"/>
-      <c r="M5" s="230"/>
-      <c r="N5" s="231"/>
+      <c r="A5" s="222"/>
+      <c r="B5" s="227"/>
+      <c r="C5" s="227"/>
+      <c r="D5" s="227"/>
+      <c r="E5" s="227"/>
+      <c r="F5" s="227"/>
+      <c r="G5" s="227"/>
+      <c r="H5" s="227"/>
+      <c r="I5" s="227"/>
+      <c r="J5" s="227"/>
+      <c r="K5" s="227"/>
+      <c r="L5" s="227"/>
+      <c r="M5" s="227"/>
+      <c r="N5" s="228"/>
       <c r="O5" s="70"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="204" t="s">
+      <c r="A6" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="232"/>
-      <c r="C6" s="233" t="s">
+      <c r="B6" s="229"/>
+      <c r="C6" s="230" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="233"/>
-      <c r="E6" s="233" t="s">
+      <c r="D6" s="230"/>
+      <c r="E6" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="233"/>
-      <c r="G6" s="234"/>
-      <c r="H6" s="234"/>
-      <c r="I6" s="233" t="s">
+      <c r="F6" s="230"/>
+      <c r="G6" s="231"/>
+      <c r="H6" s="231"/>
+      <c r="I6" s="230" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="233"/>
+      <c r="J6" s="230"/>
       <c r="K6" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="235" t="s">
+      <c r="L6" s="232" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="236"/>
+      <c r="M6" s="233"/>
       <c r="N6" s="72" t="s">
         <v>28</v>
       </c>
       <c r="O6" s="70"/>
     </row>
     <row r="7" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="204" t="s">
+      <c r="A7" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="205"/>
+      <c r="B7" s="202"/>
       <c r="C7" s="73" t="s">
         <v>31</v>
       </c>
@@ -5312,8 +5330,8 @@
       <c r="O7" s="70"/>
     </row>
     <row r="8" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="206"/>
-      <c r="B8" s="207"/>
+      <c r="A8" s="203"/>
+      <c r="B8" s="204"/>
       <c r="C8" s="73" t="s">
         <v>37</v>
       </c>
@@ -5341,8 +5359,8 @@
       <c r="O8" s="70"/>
     </row>
     <row r="9" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="206"/>
-      <c r="B9" s="207"/>
+      <c r="A9" s="203"/>
+      <c r="B9" s="204"/>
       <c r="C9" s="73" t="s">
         <v>42</v>
       </c>
@@ -5370,8 +5388,8 @@
       <c r="O9" s="70"/>
     </row>
     <row r="10" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="206"/>
-      <c r="B10" s="207"/>
+      <c r="A10" s="203"/>
+      <c r="B10" s="204"/>
       <c r="C10" s="89" t="s">
         <v>47</v>
       </c>
@@ -5395,10 +5413,10 @@
       <c r="O10" s="70"/>
     </row>
     <row r="11" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="204" t="s">
+      <c r="A11" s="201" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="205"/>
+      <c r="B11" s="202"/>
       <c r="C11" s="93" t="s">
         <v>31</v>
       </c>
@@ -5426,8 +5444,8 @@
       <c r="O11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="206"/>
-      <c r="B12" s="207"/>
+      <c r="A12" s="203"/>
+      <c r="B12" s="204"/>
       <c r="C12" s="79" t="s">
         <v>37</v>
       </c>
@@ -5455,8 +5473,8 @@
       <c r="O12" s="70"/>
     </row>
     <row r="13" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="206"/>
-      <c r="B13" s="207"/>
+      <c r="A13" s="203"/>
+      <c r="B13" s="204"/>
       <c r="C13" s="79" t="s">
         <v>42</v>
       </c>
@@ -5484,8 +5502,8 @@
       <c r="O13" s="70"/>
     </row>
     <row r="14" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="206"/>
-      <c r="B14" s="207"/>
+      <c r="A14" s="203"/>
+      <c r="B14" s="204"/>
       <c r="C14" s="92" t="s">
         <v>47</v>
       </c>
@@ -5513,10 +5531,10 @@
       <c r="O14" s="70"/>
     </row>
     <row r="15" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="204" t="s">
+      <c r="A15" s="201" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="205"/>
+      <c r="B15" s="202"/>
       <c r="C15" s="93" t="s">
         <v>31</v>
       </c>
@@ -5544,8 +5562,8 @@
       <c r="O15" s="70"/>
     </row>
     <row r="16" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="206"/>
-      <c r="B16" s="207"/>
+      <c r="A16" s="203"/>
+      <c r="B16" s="204"/>
       <c r="C16" s="79" t="s">
         <v>37</v>
       </c>
@@ -5573,8 +5591,8 @@
       <c r="O16" s="70"/>
     </row>
     <row r="17" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="206"/>
-      <c r="B17" s="207"/>
+      <c r="A17" s="203"/>
+      <c r="B17" s="204"/>
       <c r="C17" s="79" t="s">
         <v>42</v>
       </c>
@@ -5600,8 +5618,8 @@
       <c r="O17" s="70"/>
     </row>
     <row r="18" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="206"/>
-      <c r="B18" s="207"/>
+      <c r="A18" s="203"/>
+      <c r="B18" s="204"/>
       <c r="C18" s="92" t="s">
         <v>47</v>
       </c>
@@ -5625,8 +5643,8 @@
       <c r="O18" s="70"/>
     </row>
     <row r="19" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="206"/>
-      <c r="B19" s="207"/>
+      <c r="A19" s="203"/>
+      <c r="B19" s="204"/>
       <c r="C19" s="79"/>
       <c r="D19" s="97"/>
       <c r="E19" s="74"/>
@@ -5648,8 +5666,8 @@
       <c r="O19" s="70"/>
     </row>
     <row r="20" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="206"/>
-      <c r="B20" s="207"/>
+      <c r="A20" s="203"/>
+      <c r="B20" s="204"/>
       <c r="C20" s="79"/>
       <c r="D20" s="97"/>
       <c r="E20" s="74"/>
@@ -5669,8 +5687,8 @@
       <c r="O20" s="70"/>
     </row>
     <row r="21" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="206"/>
-      <c r="B21" s="207"/>
+      <c r="A21" s="203"/>
+      <c r="B21" s="204"/>
       <c r="C21" s="92"/>
       <c r="D21" s="98"/>
       <c r="E21" s="89"/>
@@ -5690,21 +5708,21 @@
       <c r="O21" s="70"/>
     </row>
     <row r="22" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="204" t="s">
+      <c r="A22" s="201" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="205"/>
+      <c r="B22" s="202"/>
       <c r="C22" s="93" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="E22" t="s" s="323">
-        <v>203</v>
-      </c>
-      <c r="F22" t="s" s="321">
-        <v>202</v>
+      <c r="E22" t="s" s="367">
+        <v>210</v>
+      </c>
+      <c r="F22" t="s" s="365">
+        <v>209</v>
       </c>
       <c r="G22" s="76"/>
       <c r="H22" s="94"/>
@@ -5714,8 +5732,8 @@
       <c r="J22" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="K22" t="s" s="319">
-        <v>198</v>
+      <c r="K22" t="s" s="363">
+        <v>205</v>
       </c>
       <c r="L22" s="82" t="s">
         <v>35</v>
@@ -5723,14 +5741,14 @@
       <c r="M22" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="N22" t="s" s="319">
-        <v>198</v>
+      <c r="N22" t="s" s="363">
+        <v>205</v>
       </c>
       <c r="O22" s="70"/>
     </row>
     <row r="23" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="206"/>
-      <c r="B23" s="207"/>
+      <c r="A23" s="203"/>
+      <c r="B23" s="204"/>
       <c r="C23" s="79" t="s">
         <v>37</v>
       </c>
@@ -5743,8 +5761,8 @@
       <c r="H23" s="74"/>
       <c r="I23" s="79"/>
       <c r="J23" s="109"/>
-      <c r="K23" t="s" s="319">
-        <v>195</v>
+      <c r="K23" t="s" s="363">
+        <v>198</v>
       </c>
       <c r="L23" s="88" t="s">
         <v>40</v>
@@ -5752,14 +5770,14 @@
       <c r="M23" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="N23" t="s" s="319">
-        <v>198</v>
+      <c r="N23" t="s" s="363">
+        <v>205</v>
       </c>
       <c r="O23" s="70"/>
     </row>
     <row r="24" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="206"/>
-      <c r="B24" s="207"/>
+      <c r="A24" s="203"/>
+      <c r="B24" s="204"/>
       <c r="C24" s="79" t="s">
         <v>42</v>
       </c>
@@ -5772,8 +5790,8 @@
       <c r="H24" s="74"/>
       <c r="I24" s="79"/>
       <c r="J24" s="109"/>
-      <c r="K24" t="s" s="319">
-        <v>195</v>
+      <c r="K24" t="s" s="363">
+        <v>198</v>
       </c>
       <c r="L24" s="88" t="s">
         <v>45</v>
@@ -5781,14 +5799,14 @@
       <c r="M24" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="N24" t="s" s="319">
-        <v>198</v>
+      <c r="N24" t="s" s="363">
+        <v>205</v>
       </c>
       <c r="O24" s="70"/>
     </row>
     <row r="25" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="206"/>
-      <c r="B25" s="207"/>
+      <c r="A25" s="203"/>
+      <c r="B25" s="204"/>
       <c r="C25" s="92" t="s">
         <v>47</v>
       </c>
@@ -5801,8 +5819,8 @@
       <c r="H25" s="112"/>
       <c r="I25" s="79"/>
       <c r="J25" s="109"/>
-      <c r="K25" t="s" s="319">
-        <v>195</v>
+      <c r="K25" t="s" s="363">
+        <v>198</v>
       </c>
       <c r="L25" s="88" t="s">
         <v>49</v>
@@ -5810,16 +5828,16 @@
       <c r="M25" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="N25" t="s" s="319">
-        <v>198</v>
+      <c r="N25" t="s" s="363">
+        <v>205</v>
       </c>
       <c r="O25" s="70"/>
     </row>
     <row r="26" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="204" t="s">
+      <c r="A26" s="201" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="205"/>
+      <c r="B26" s="202"/>
       <c r="C26" s="93" t="s">
         <v>31</v>
       </c>
@@ -5847,8 +5865,8 @@
       <c r="O26" s="70"/>
     </row>
     <row r="27" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="206"/>
-      <c r="B27" s="207"/>
+      <c r="A27" s="203"/>
+      <c r="B27" s="204"/>
       <c r="C27" s="79" t="s">
         <v>37</v>
       </c>
@@ -5872,8 +5890,8 @@
       <c r="O27" s="70"/>
     </row>
     <row r="28" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="206"/>
-      <c r="B28" s="207"/>
+      <c r="A28" s="203"/>
+      <c r="B28" s="204"/>
       <c r="C28" s="79" t="s">
         <v>42</v>
       </c>
@@ -5897,8 +5915,8 @@
       <c r="O28" s="70"/>
     </row>
     <row r="29" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="206"/>
-      <c r="B29" s="207"/>
+      <c r="A29" s="203"/>
+      <c r="B29" s="204"/>
       <c r="C29" s="92" t="s">
         <v>47</v>
       </c>
@@ -5922,10 +5940,10 @@
       <c r="O29" s="70"/>
     </row>
     <row r="30" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="204" t="s">
+      <c r="A30" s="201" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="205"/>
+      <c r="B30" s="202"/>
       <c r="C30" s="93" t="s">
         <v>31</v>
       </c>
@@ -5953,8 +5971,8 @@
       <c r="O30" s="70"/>
     </row>
     <row r="31" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="206"/>
-      <c r="B31" s="207"/>
+      <c r="A31" s="203"/>
+      <c r="B31" s="204"/>
       <c r="C31" s="79" t="s">
         <v>98</v>
       </c>
@@ -5982,8 +6000,8 @@
       <c r="O31" s="70"/>
     </row>
     <row r="32" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="206"/>
-      <c r="B32" s="207"/>
+      <c r="A32" s="203"/>
+      <c r="B32" s="204"/>
       <c r="C32" s="79" t="s">
         <v>42</v>
       </c>
@@ -6011,8 +6029,8 @@
       <c r="O32" s="70"/>
     </row>
     <row r="33" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="206"/>
-      <c r="B33" s="207"/>
+      <c r="A33" s="203"/>
+      <c r="B33" s="204"/>
       <c r="C33" s="92" t="s">
         <v>47</v>
       </c>
@@ -6040,8 +6058,8 @@
       <c r="O33" s="70"/>
     </row>
     <row r="34" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="213"/>
-      <c r="B34" s="214"/>
+      <c r="A34" s="210"/>
+      <c r="B34" s="211"/>
       <c r="C34" s="92"/>
       <c r="D34" s="98"/>
       <c r="E34" s="73"/>
@@ -6061,8 +6079,8 @@
       <c r="O34" s="70"/>
     </row>
     <row r="35" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="208"/>
-      <c r="B35" s="209"/>
+      <c r="A35" s="205"/>
+      <c r="B35" s="206"/>
       <c r="C35" s="114"/>
       <c r="D35" s="115"/>
       <c r="E35" s="116"/>
@@ -6082,10 +6100,10 @@
       <c r="O35" s="70"/>
     </row>
     <row r="36" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="204" t="s">
+      <c r="A36" s="201" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="205"/>
+      <c r="B36" s="202"/>
       <c r="C36" s="93" t="s">
         <v>31</v>
       </c>
@@ -6113,8 +6131,8 @@
       <c r="O36" s="70"/>
     </row>
     <row r="37" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="206"/>
-      <c r="B37" s="207"/>
+      <c r="A37" s="203"/>
+      <c r="B37" s="204"/>
       <c r="C37" s="79" t="s">
         <v>37</v>
       </c>
@@ -6125,10 +6143,10 @@
       <c r="F37" s="74"/>
       <c r="G37" s="74"/>
       <c r="H37" s="86"/>
-      <c r="I37" s="202" t="s">
+      <c r="I37" s="199" t="s">
         <v>183</v>
       </c>
-      <c r="J37" s="203"/>
+      <c r="J37" s="200"/>
       <c r="K37" s="87"/>
       <c r="L37" s="88" t="s">
         <v>40</v>
@@ -6140,8 +6158,8 @@
       <c r="O37" s="70"/>
     </row>
     <row r="38" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="206"/>
-      <c r="B38" s="207"/>
+      <c r="A38" s="203"/>
+      <c r="B38" s="204"/>
       <c r="C38" s="79" t="s">
         <v>42</v>
       </c>
@@ -6165,8 +6183,8 @@
       <c r="O38" s="70"/>
     </row>
     <row r="39" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="206"/>
-      <c r="B39" s="207"/>
+      <c r="A39" s="203"/>
+      <c r="B39" s="204"/>
       <c r="C39" s="92" t="s">
         <v>47</v>
       </c>
@@ -6194,10 +6212,10 @@
       <c r="T39" s="61"/>
     </row>
     <row r="40" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="215" t="s">
+      <c r="A40" s="212" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="216"/>
+      <c r="B40" s="213"/>
       <c r="C40" s="100" t="s">
         <v>31</v>
       </c>
@@ -6230,8 +6248,8 @@
       <c r="T40" s="61"/>
     </row>
     <row r="41" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="217"/>
-      <c r="B41" s="218"/>
+      <c r="A41" s="214"/>
+      <c r="B41" s="215"/>
       <c r="C41" s="105" t="s">
         <v>37</v>
       </c>
@@ -6264,8 +6282,8 @@
       <c r="T41" s="126"/>
     </row>
     <row r="42" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="217"/>
-      <c r="B42" s="218"/>
+      <c r="A42" s="214"/>
+      <c r="B42" s="215"/>
       <c r="C42" s="105" t="s">
         <v>42</v>
       </c>
@@ -6298,8 +6316,8 @@
       <c r="T42" s="126"/>
     </row>
     <row r="43" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="217"/>
-      <c r="B43" s="218"/>
+      <c r="A43" s="214"/>
+      <c r="B43" s="215"/>
       <c r="C43" s="131" t="s">
         <v>47</v>
       </c>
@@ -6332,8 +6350,8 @@
       <c r="T43" s="126"/>
     </row>
     <row r="44" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="219"/>
-      <c r="B44" s="220"/>
+      <c r="A44" s="216"/>
+      <c r="B44" s="217"/>
       <c r="C44" s="131"/>
       <c r="D44" s="132"/>
       <c r="E44" s="127"/>
@@ -6362,8 +6380,8 @@
       <c r="T44" s="61"/>
     </row>
     <row r="45" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="219"/>
-      <c r="B45" s="220"/>
+      <c r="A45" s="216"/>
+      <c r="B45" s="217"/>
       <c r="C45" s="131"/>
       <c r="D45" s="132"/>
       <c r="E45" s="127"/>
@@ -6388,8 +6406,8 @@
       <c r="T45" s="61"/>
     </row>
     <row r="46" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="219"/>
-      <c r="B46" s="220"/>
+      <c r="A46" s="216"/>
+      <c r="B46" s="217"/>
       <c r="C46" s="131"/>
       <c r="D46" s="132"/>
       <c r="E46" s="127"/>
@@ -6414,8 +6432,8 @@
       <c r="T46" s="61"/>
     </row>
     <row r="47" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="221"/>
-      <c r="B47" s="222"/>
+      <c r="A47" s="218"/>
+      <c r="B47" s="219"/>
       <c r="C47" s="133"/>
       <c r="D47" s="134"/>
       <c r="E47" s="135"/>
@@ -6440,10 +6458,10 @@
       <c r="T47" s="61"/>
     </row>
     <row r="48" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="204" t="s">
+      <c r="A48" s="201" t="s">
         <v>131</v>
       </c>
-      <c r="B48" s="205"/>
+      <c r="B48" s="202"/>
       <c r="C48" s="93" t="s">
         <v>31</v>
       </c>
@@ -6475,8 +6493,8 @@
       <c r="T48" s="61"/>
     </row>
     <row r="49" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="206"/>
-      <c r="B49" s="207"/>
+      <c r="A49" s="203"/>
+      <c r="B49" s="204"/>
       <c r="C49" s="79" t="s">
         <v>37</v>
       </c>
@@ -6508,8 +6526,8 @@
       <c r="T49" s="61"/>
     </row>
     <row r="50" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="206"/>
-      <c r="B50" s="207"/>
+      <c r="A50" s="203"/>
+      <c r="B50" s="204"/>
       <c r="C50" s="79" t="s">
         <v>42</v>
       </c>
@@ -6541,8 +6559,8 @@
       <c r="T50" s="61"/>
     </row>
     <row r="51" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="206"/>
-      <c r="B51" s="207"/>
+      <c r="A51" s="203"/>
+      <c r="B51" s="204"/>
       <c r="C51" s="92" t="s">
         <v>47</v>
       </c>
@@ -6574,8 +6592,8 @@
       <c r="T51" s="61"/>
     </row>
     <row r="52" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="213"/>
-      <c r="B52" s="214"/>
+      <c r="A52" s="210"/>
+      <c r="B52" s="211"/>
       <c r="C52" s="92"/>
       <c r="D52" s="98"/>
       <c r="E52" s="73"/>
@@ -6595,8 +6613,8 @@
       <c r="O52" s="70"/>
     </row>
     <row r="53" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="213"/>
-      <c r="B53" s="214"/>
+      <c r="A53" s="210"/>
+      <c r="B53" s="211"/>
       <c r="C53" s="92"/>
       <c r="D53" s="98"/>
       <c r="E53" s="73"/>
@@ -6616,8 +6634,8 @@
       <c r="O53" s="70"/>
     </row>
     <row r="54" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="213"/>
-      <c r="B54" s="214"/>
+      <c r="A54" s="210"/>
+      <c r="B54" s="211"/>
       <c r="C54" s="92"/>
       <c r="D54" s="98"/>
       <c r="E54" s="73"/>
@@ -6637,8 +6655,8 @@
       <c r="O54" s="70"/>
     </row>
     <row r="55" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="208"/>
-      <c r="B55" s="209"/>
+      <c r="A55" s="205"/>
+      <c r="B55" s="206"/>
       <c r="C55" s="114"/>
       <c r="D55" s="115"/>
       <c r="E55" s="116"/>
@@ -6658,10 +6676,10 @@
       <c r="O55" s="70"/>
     </row>
     <row r="56" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="204" t="s">
+      <c r="A56" s="201" t="s">
         <v>138</v>
       </c>
-      <c r="B56" s="205"/>
+      <c r="B56" s="202"/>
       <c r="C56" s="93" t="s">
         <v>31</v>
       </c>
@@ -6689,8 +6707,8 @@
       <c r="O56" s="70"/>
     </row>
     <row r="57" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="206"/>
-      <c r="B57" s="207"/>
+      <c r="A57" s="203"/>
+      <c r="B57" s="204"/>
       <c r="C57" s="79" t="s">
         <v>37</v>
       </c>
@@ -6718,8 +6736,8 @@
       <c r="O57" s="70"/>
     </row>
     <row r="58" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="206"/>
-      <c r="B58" s="207"/>
+      <c r="A58" s="203"/>
+      <c r="B58" s="204"/>
       <c r="C58" s="79" t="s">
         <v>42</v>
       </c>
@@ -6747,8 +6765,8 @@
       <c r="O58" s="70"/>
     </row>
     <row r="59" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="206"/>
-      <c r="B59" s="207"/>
+      <c r="A59" s="203"/>
+      <c r="B59" s="204"/>
       <c r="C59" s="92" t="s">
         <v>47</v>
       </c>
@@ -6772,8 +6790,8 @@
       <c r="O59" s="70"/>
     </row>
     <row r="60" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="213"/>
-      <c r="B60" s="214"/>
+      <c r="A60" s="210"/>
+      <c r="B60" s="211"/>
       <c r="C60" s="92"/>
       <c r="D60" s="98"/>
       <c r="E60" s="73"/>
@@ -6793,8 +6811,8 @@
       <c r="O60" s="70"/>
     </row>
     <row r="61" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="213"/>
-      <c r="B61" s="214"/>
+      <c r="A61" s="210"/>
+      <c r="B61" s="211"/>
       <c r="C61" s="92"/>
       <c r="D61" s="98"/>
       <c r="E61" s="73"/>
@@ -6814,8 +6832,8 @@
       <c r="O61" s="70"/>
     </row>
     <row r="62" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="213"/>
-      <c r="B62" s="214"/>
+      <c r="A62" s="210"/>
+      <c r="B62" s="211"/>
       <c r="C62" s="92"/>
       <c r="D62" s="98"/>
       <c r="E62" s="73"/>
@@ -6835,10 +6853,10 @@
       <c r="O62" s="70"/>
     </row>
     <row r="63" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="204" t="s">
+      <c r="A63" s="201" t="s">
         <v>151</v>
       </c>
-      <c r="B63" s="205"/>
+      <c r="B63" s="202"/>
       <c r="C63" s="93" t="s">
         <v>31</v>
       </c>
@@ -6866,8 +6884,8 @@
       <c r="O63" s="70"/>
     </row>
     <row r="64" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="206"/>
-      <c r="B64" s="207"/>
+      <c r="A64" s="203"/>
+      <c r="B64" s="204"/>
       <c r="C64" s="79" t="s">
         <v>37</v>
       </c>
@@ -6895,8 +6913,8 @@
       <c r="O64" s="70"/>
     </row>
     <row r="65" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="206"/>
-      <c r="B65" s="207"/>
+      <c r="A65" s="203"/>
+      <c r="B65" s="204"/>
       <c r="C65" s="79" t="s">
         <v>42</v>
       </c>
@@ -6920,8 +6938,8 @@
       <c r="O65" s="70"/>
     </row>
     <row r="66" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="206"/>
-      <c r="B66" s="207"/>
+      <c r="A66" s="203"/>
+      <c r="B66" s="204"/>
       <c r="C66" s="92" t="s">
         <v>47</v>
       </c>
@@ -6945,10 +6963,10 @@
       <c r="O66" s="70"/>
     </row>
     <row r="67" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="204" t="s">
+      <c r="A67" s="201" t="s">
         <v>161</v>
       </c>
-      <c r="B67" s="205"/>
+      <c r="B67" s="202"/>
       <c r="C67" s="93" t="s">
         <v>31</v>
       </c>
@@ -6976,8 +6994,8 @@
       <c r="O67" s="70"/>
     </row>
     <row r="68" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="206"/>
-      <c r="B68" s="207"/>
+      <c r="A68" s="203"/>
+      <c r="B68" s="204"/>
       <c r="C68" s="79" t="s">
         <v>37</v>
       </c>
@@ -7001,8 +7019,8 @@
       <c r="O68" s="70"/>
     </row>
     <row r="69" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="206"/>
-      <c r="B69" s="207"/>
+      <c r="A69" s="203"/>
+      <c r="B69" s="204"/>
       <c r="C69" s="79" t="s">
         <v>42</v>
       </c>
@@ -7026,8 +7044,8 @@
       <c r="O69" s="70"/>
     </row>
     <row r="70" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="206"/>
-      <c r="B70" s="207"/>
+      <c r="A70" s="203"/>
+      <c r="B70" s="204"/>
       <c r="C70" s="92" t="s">
         <v>47</v>
       </c>
@@ -7051,10 +7069,10 @@
       <c r="O70" s="70"/>
     </row>
     <row r="71" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="204" t="s">
+      <c r="A71" s="201" t="s">
         <v>166</v>
       </c>
-      <c r="B71" s="205"/>
+      <c r="B71" s="202"/>
       <c r="C71" s="93" t="s">
         <v>31</v>
       </c>
@@ -7082,8 +7100,8 @@
       <c r="O71" s="70"/>
     </row>
     <row r="72" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="206"/>
-      <c r="B72" s="207"/>
+      <c r="A72" s="203"/>
+      <c r="B72" s="204"/>
       <c r="C72" s="79" t="s">
         <v>37</v>
       </c>
@@ -7111,8 +7129,8 @@
       <c r="O72" s="70"/>
     </row>
     <row r="73" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="206"/>
-      <c r="B73" s="207"/>
+      <c r="A73" s="203"/>
+      <c r="B73" s="204"/>
       <c r="C73" s="79" t="s">
         <v>42</v>
       </c>
@@ -7138,8 +7156,8 @@
       <c r="O73" s="70"/>
     </row>
     <row r="74" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="206"/>
-      <c r="B74" s="207"/>
+      <c r="A74" s="203"/>
+      <c r="B74" s="204"/>
       <c r="C74" s="92" t="s">
         <v>47</v>
       </c>
@@ -7167,18 +7185,18 @@
       <c r="O74" s="70"/>
     </row>
     <row r="75" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="208"/>
-      <c r="B75" s="209"/>
+      <c r="A75" s="205"/>
+      <c r="B75" s="206"/>
       <c r="C75" s="114"/>
       <c r="D75" s="115"/>
       <c r="E75" s="74"/>
       <c r="F75" s="74"/>
       <c r="G75" s="116"/>
       <c r="H75" s="116"/>
-      <c r="I75" s="210" t="s">
+      <c r="I75" s="207" t="s">
         <v>174</v>
       </c>
-      <c r="J75" s="211"/>
+      <c r="J75" s="208"/>
       <c r="K75" s="146"/>
       <c r="L75" s="114"/>
       <c r="M75" s="115"/>
@@ -7186,10 +7204,10 @@
       <c r="O75" s="70"/>
     </row>
     <row r="76" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="204" t="s">
+      <c r="A76" s="201" t="s">
         <v>175</v>
       </c>
-      <c r="B76" s="205"/>
+      <c r="B76" s="202"/>
       <c r="C76" s="93" t="s">
         <v>31</v>
       </c>
@@ -7216,8 +7234,8 @@
       <c r="N76" s="144"/>
     </row>
     <row r="77" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="206"/>
-      <c r="B77" s="207"/>
+      <c r="A77" s="203"/>
+      <c r="B77" s="204"/>
       <c r="C77" s="79" t="s">
         <v>37</v>
       </c>
@@ -7244,8 +7262,8 @@
       <c r="N77" s="144"/>
     </row>
     <row r="78" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="206"/>
-      <c r="B78" s="207"/>
+      <c r="A78" s="203"/>
+      <c r="B78" s="204"/>
       <c r="C78" s="79" t="s">
         <v>42</v>
       </c>
@@ -7270,8 +7288,8 @@
       <c r="N78" s="144"/>
     </row>
     <row r="79" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="206"/>
-      <c r="B79" s="207"/>
+      <c r="A79" s="203"/>
+      <c r="B79" s="204"/>
       <c r="C79" s="92" t="s">
         <v>47</v>
       </c>
@@ -7298,18 +7316,18 @@
       <c r="N79" s="144"/>
     </row>
     <row r="80" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="206"/>
-      <c r="B80" s="207"/>
+      <c r="A80" s="203"/>
+      <c r="B80" s="204"/>
       <c r="C80" s="92"/>
       <c r="D80" s="98"/>
       <c r="E80" s="85"/>
       <c r="F80" s="74"/>
       <c r="G80" s="74"/>
       <c r="H80" s="74"/>
-      <c r="I80" s="210" t="s">
+      <c r="I80" s="207" t="s">
         <v>174</v>
       </c>
-      <c r="J80" s="212"/>
+      <c r="J80" s="209"/>
       <c r="K80" s="149"/>
       <c r="L80" s="79" t="s">
         <v>180</v>
@@ -7320,8 +7338,8 @@
       <c r="N80" s="144"/>
     </row>
     <row r="81" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="208"/>
-      <c r="B81" s="209"/>
+      <c r="A81" s="205"/>
+      <c r="B81" s="206"/>
       <c r="C81" s="114"/>
       <c r="D81" s="115"/>
       <c r="E81" s="150"/>

--- a/nuevaHojaInstruccion.xlsx
+++ b/nuevaHojaInstruccion.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
   </bookViews>
   <sheets>
-    <sheet name="4" sheetId="1" r:id="rId1"/>
-    <sheet name="060924" sheetId="2" r:id="rId2"/>
+    <sheet name="114" sheetId="1" r:id="rId1"/>
+    <sheet name="111024" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'7'!$A$1:$J$62</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="235">
   <si>
     <t>HOJA DE INSTRUCCIÓN DE INSPECCION/RECIBO DE MATERIA PRIMA</t>
   </si>
@@ -800,97 +800,142 @@
     <t>Dureza Rb</t>
   </si>
   <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>11 de octubre de 2024</t>
+  </si>
+  <si>
+    <t>Lamina en Cinta. Cal. 19 A1008-DS</t>
+  </si>
+  <si>
+    <t>B.F STEEL DE MEXICO S.A DE C.V</t>
+  </si>
+  <si>
+    <t>42490</t>
+  </si>
+  <si>
+    <t>19/08/2023</t>
+  </si>
+  <si>
+    <t>,040" ± ,002"</t>
+  </si>
+  <si>
+    <t>233125282</t>
+  </si>
+  <si>
+    <t>BF - 429 - 23</t>
+  </si>
+  <si>
+    <t>21/7642</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>6 de septiembre de 2024</t>
-  </si>
-  <si>
-    <t>Lamina en Hoja. Cal. 14 A1008-DS</t>
-  </si>
-  <si>
-    <t>B.F STEEL DE MEXICO S.A DE C.V</t>
-  </si>
-  <si>
-    <t>42419</t>
-  </si>
-  <si>
-    <t>02/08/2023</t>
-  </si>
-  <si>
-    <t>,0747" ± ,0025"</t>
-  </si>
-  <si>
-    <t>233125282</t>
-  </si>
-  <si>
-    <t>BF - 421 - 23</t>
-  </si>
-  <si>
-    <t>03/4022</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>EWREWREWR</t>
-  </si>
-  <si>
-    <t>wdfghkiujt</t>
-  </si>
-  <si>
-    <t>a3gsgr54y</t>
-  </si>
-  <si>
-    <t>REWR</t>
-  </si>
-  <si>
-    <t>REW</t>
+    <t>√</t>
+  </si>
+  <si>
+    <t>SE LIBERAN todas las PIEZAS, CON UN TOTAL DE1.578462 KG</t>
+  </si>
+  <si>
+    <t>MATERIAL DENTRO DE ESPECIFICACIÓN</t>
+  </si>
+  <si>
+    <t>JCSistemas</t>
+  </si>
+  <si>
+    <t>Cal 19   ,040" ± ,002"</t>
   </si>
   <si>
     <t>R</t>
-  </si>
-  <si>
-    <t>3QFASDGETHRE5A4W</t>
-  </si>
-  <si>
-    <t>rewfsdgnhjctud5</t>
-  </si>
-  <si>
-    <t>FSDGRET54R3qw</t>
-  </si>
-  <si>
-    <t>ety53ta24q65</t>
-  </si>
-  <si>
-    <t>6y43erwfdsgthrs</t>
-  </si>
-  <si>
-    <t>ETqrSWEtar3qe</t>
-  </si>
-  <si>
-    <t>SDFGTHJIUY7TRESJUY6T5RDFGHJUYTHDXCVGBH</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
-    <t>SE LIBERAN ___ PIEZAS, CON UN TOTAL DE ___ KG</t>
-  </si>
-  <si>
-    <t>MATERIAL DENTRO DE ESPECIFICACIÓN</t>
-  </si>
-  <si>
-    <t>JCSistemas</t>
-  </si>
-  <si>
-    <t>Cal 14   ,0747" ± ,0025"</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>114</t>
@@ -991,7 +1036,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="101">
+  <borders count="93">
     <border>
       <left/>
       <right/>
@@ -2096,47 +2141,11 @@
       <left style="medium"/>
       <top style="medium"/>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="611">
+  <cellXfs count="379">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3034,725 +3043,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <protection locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5065,11 +4378,9 @@
     </row>
     <row r="6" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="13" t="s">
-        <v>219</v>
-      </c>
+      <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -5139,7 +4450,7 @@
       </c>
       <c r="H10" s="189"/>
       <c r="I10" s="188" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J10" s="189"/>
     </row>
@@ -5287,11 +4598,11 @@
     </row>
     <row r="21" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" t="s" s="491">
-        <v>217</v>
-      </c>
-      <c r="C21" t="s" s="495">
-        <v>217</v>
+      <c r="B21" t="s" s="241">
+        <v>198</v>
+      </c>
+      <c r="C21" t="s" s="245">
+        <v>199</v>
       </c>
       <c r="D21" s="44"/>
       <c r="E21" s="166"/>
@@ -5303,11 +4614,11 @@
     </row>
     <row r="22" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" t="s" s="499">
-        <v>217</v>
-      </c>
-      <c r="C22" t="s" s="503">
-        <v>217</v>
+      <c r="B22" t="s" s="249">
+        <v>200</v>
+      </c>
+      <c r="C22" t="s" s="253">
+        <v>201</v>
       </c>
       <c r="D22" s="44"/>
       <c r="E22" s="166"/>
@@ -5319,11 +4630,11 @@
     </row>
     <row r="23" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" t="s" s="507">
-        <v>200</v>
-      </c>
-      <c r="C23" t="s" s="511">
-        <v>200</v>
+      <c r="B23" t="s" s="257">
+        <v>202</v>
+      </c>
+      <c r="C23" t="s" s="261">
+        <v>203</v>
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="166"/>
@@ -5335,11 +4646,11 @@
     </row>
     <row r="24" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" t="s" s="515">
-        <v>202</v>
-      </c>
-      <c r="C24" t="s" s="519">
-        <v>202</v>
+      <c r="B24" t="s" s="265">
+        <v>204</v>
+      </c>
+      <c r="C24" t="s" s="269">
+        <v>205</v>
       </c>
       <c r="D24" s="44"/>
       <c r="E24" s="166"/>
@@ -5351,11 +4662,11 @@
     </row>
     <row r="25" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" t="s" s="523">
-        <v>204</v>
-      </c>
-      <c r="C25" t="s" s="527">
-        <v>204</v>
+      <c r="B25" t="s" s="273">
+        <v>206</v>
+      </c>
+      <c r="C25" t="s" s="277">
+        <v>207</v>
       </c>
       <c r="D25" s="44"/>
       <c r="E25" s="166"/>
@@ -5370,11 +4681,11 @@
     </row>
     <row r="26" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" t="s" s="531">
-        <v>205</v>
-      </c>
-      <c r="C26" t="s" s="535">
-        <v>205</v>
+      <c r="B26" t="s" s="281">
+        <v>208</v>
+      </c>
+      <c r="C26" t="s" s="285">
+        <v>209</v>
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="166"/>
@@ -5387,11 +4698,11 @@
     </row>
     <row r="27" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" t="s" s="539">
-        <v>217</v>
-      </c>
-      <c r="C27" t="s" s="543">
-        <v>217</v>
+      <c r="B27" t="s" s="289">
+        <v>210</v>
+      </c>
+      <c r="C27" t="s" s="293">
+        <v>84</v>
       </c>
       <c r="D27" s="44"/>
       <c r="E27" s="166"/>
@@ -5403,11 +4714,11 @@
     </row>
     <row r="28" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" t="s" s="547">
-        <v>208</v>
-      </c>
-      <c r="C28" t="s" s="551">
-        <v>208</v>
+      <c r="B28" t="s" s="297">
+        <v>211</v>
+      </c>
+      <c r="C28" t="s" s="301">
+        <v>212</v>
       </c>
       <c r="D28" s="44"/>
       <c r="E28" s="166"/>
@@ -5419,11 +4730,11 @@
     </row>
     <row r="29" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" t="s" s="555">
-        <v>209</v>
-      </c>
-      <c r="C29" t="s" s="559">
-        <v>209</v>
+      <c r="B29" t="s" s="305">
+        <v>213</v>
+      </c>
+      <c r="C29" t="s" s="309">
+        <v>214</v>
       </c>
       <c r="D29" s="44"/>
       <c r="E29" s="166"/>
@@ -5435,11 +4746,11 @@
     </row>
     <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" t="s" s="563">
-        <v>217</v>
-      </c>
-      <c r="C30" t="s" s="567">
-        <v>217</v>
+      <c r="B30" t="s" s="313">
+        <v>215</v>
+      </c>
+      <c r="C30" t="s" s="317">
+        <v>216</v>
       </c>
       <c r="D30" s="44"/>
       <c r="E30" s="168"/>
@@ -5502,7 +4813,7 @@
     <row r="35" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="173" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C35" s="174"/>
       <c r="D35" s="174"/>
@@ -5566,8 +4877,8 @@
       <c r="B40" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="361" t="s">
-        <v>198</v>
+      <c r="C40" s="60" t="s">
+        <v>228</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="8"/>
@@ -5575,8 +4886,8 @@
       <c r="G40" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="60" t="s">
-        <v>212</v>
+      <c r="H40" s="361" t="s">
+        <v>227</v>
       </c>
       <c r="I40" s="26"/>
       <c r="J40" s="10"/>
@@ -5610,7 +4921,7 @@
     <row r="43" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="236" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C43" s="236"/>
       <c r="D43" s="236"/>
@@ -5626,20 +4937,20 @@
       <c r="B44" s="234" t="s">
         <v>186</v>
       </c>
-      <c r="C44" t="s" s="571">
-        <v>218</v>
-      </c>
-      <c r="D44" t="s" s="579">
-        <v>218</v>
-      </c>
-      <c r="E44" t="s" s="587">
-        <v>211</v>
-      </c>
-      <c r="F44" t="s" s="595">
-        <v>218</v>
-      </c>
-      <c r="G44" t="s" s="603">
-        <v>218</v>
+      <c r="C44" t="s" s="321">
+        <v>217</v>
+      </c>
+      <c r="D44" t="s" s="329">
+        <v>219</v>
+      </c>
+      <c r="E44" t="s" s="337">
+        <v>221</v>
+      </c>
+      <c r="F44" t="s" s="345">
+        <v>223</v>
+      </c>
+      <c r="G44" t="s" s="353">
+        <v>225</v>
       </c>
       <c r="H44" s="237"/>
       <c r="I44" s="49"/>
@@ -5650,20 +4961,20 @@
       <c r="B45" s="234" t="s">
         <v>187</v>
       </c>
-      <c r="C45" t="s" s="575">
+      <c r="C45" t="s" s="325">
         <v>218</v>
       </c>
-      <c r="D45" t="s" s="583">
-        <v>218</v>
-      </c>
-      <c r="E45" t="s" s="591">
-        <v>218</v>
-      </c>
-      <c r="F45" t="s" s="599">
-        <v>218</v>
-      </c>
-      <c r="G45" t="s" s="607">
-        <v>218</v>
+      <c r="D45" t="s" s="333">
+        <v>220</v>
+      </c>
+      <c r="E45" t="s" s="341">
+        <v>222</v>
+      </c>
+      <c r="F45" t="s" s="349">
+        <v>224</v>
+      </c>
+      <c r="G45" t="s" s="357">
+        <v>226</v>
       </c>
       <c r="H45" s="235"/>
       <c r="I45" s="8"/>
@@ -5854,7 +5165,7 @@
     <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="44"/>
       <c r="B61" s="185" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="C61" s="186"/>
       <c r="D61" s="187"/>
@@ -5971,24 +5282,16 @@
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
       <c r="D1" s="64"/>
-      <c r="E1" t="s" s="367">
-        <v>204</v>
-      </c>
-      <c r="F1" t="s" s="365">
-        <v>216</v>
-      </c>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
       <c r="G1" s="64"/>
       <c r="H1" s="64"/>
       <c r="I1" s="64"/>
       <c r="J1" s="64"/>
-      <c r="K1" t="s" s="363">
-        <v>212</v>
-      </c>
+      <c r="K1" s="64"/>
       <c r="L1" s="64"/>
       <c r="M1" s="64"/>
-      <c r="N1" t="s" s="363">
-        <v>212</v>
-      </c>
+      <c r="N1" s="64"/>
     </row>
     <row r="2" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="68"/>
@@ -6001,14 +5304,10 @@
       <c r="H2" s="69"/>
       <c r="I2" s="69"/>
       <c r="J2" s="69"/>
-      <c r="K2" t="s" s="363">
-        <v>212</v>
-      </c>
+      <c r="K2" s="69"/>
       <c r="L2" s="69"/>
       <c r="M2" s="69"/>
-      <c r="N2" t="s" s="363">
-        <v>212</v>
-      </c>
+      <c r="N2" s="69"/>
       <c r="O2" s="68"/>
     </row>
     <row r="3" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6024,14 +5323,10 @@
       <c r="H3" s="223"/>
       <c r="I3" s="223"/>
       <c r="J3" s="223"/>
-      <c r="K3" t="s" s="363">
-        <v>212</v>
-      </c>
+      <c r="K3" s="223"/>
       <c r="L3" s="223"/>
       <c r="M3" s="223"/>
-      <c r="N3" t="s" s="363">
-        <v>212</v>
-      </c>
+      <c r="N3" s="224"/>
       <c r="O3" s="70"/>
     </row>
     <row r="4" spans="1:15" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6045,14 +5340,10 @@
       <c r="H4" s="225"/>
       <c r="I4" s="225"/>
       <c r="J4" s="225"/>
-      <c r="K4" t="s" s="363">
-        <v>198</v>
-      </c>
+      <c r="K4" s="225"/>
       <c r="L4" s="225"/>
       <c r="M4" s="225"/>
-      <c r="N4" t="s" s="363">
-        <v>212</v>
-      </c>
+      <c r="N4" s="226"/>
       <c r="O4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7864,8 +7155,12 @@
       <c r="D71" s="94" t="s">
         <v>167</v>
       </c>
-      <c r="E71" s="75"/>
-      <c r="F71" s="76"/>
+      <c r="E71" t="s" s="367">
+        <v>233</v>
+      </c>
+      <c r="F71" t="s" s="365">
+        <v>232</v>
+      </c>
       <c r="G71" s="76"/>
       <c r="H71" s="94"/>
       <c r="I71" s="93" t="s">
@@ -7874,14 +7169,18 @@
       <c r="J71" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="K71" s="143"/>
+      <c r="K71" t="s" s="363">
+        <v>228</v>
+      </c>
       <c r="L71" s="82" t="s">
         <v>35</v>
       </c>
       <c r="M71" s="78" t="s">
         <v>169</v>
       </c>
-      <c r="N71" s="144"/>
+      <c r="N71" t="s" s="363">
+        <v>228</v>
+      </c>
       <c r="O71" s="70"/>
     </row>
     <row r="72" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7903,14 +7202,18 @@
       <c r="J72" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="K72" s="143"/>
+      <c r="K72" t="s" s="363">
+        <v>228</v>
+      </c>
       <c r="L72" s="88" t="s">
         <v>40</v>
       </c>
       <c r="M72" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="N72" s="144"/>
+      <c r="N72" t="s" s="363">
+        <v>228</v>
+      </c>
       <c r="O72" s="70"/>
     </row>
     <row r="73" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7930,14 +7233,18 @@
       <c r="J73" s="112" t="s">
         <v>171</v>
       </c>
-      <c r="K73" s="145"/>
+      <c r="K73" t="s" s="363">
+        <v>228</v>
+      </c>
       <c r="L73" s="88" t="s">
         <v>45</v>
       </c>
       <c r="M73" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="N73" s="144"/>
+      <c r="N73" t="s" s="363">
+        <v>228</v>
+      </c>
       <c r="O73" s="70"/>
     </row>
     <row r="74" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7959,14 +7266,18 @@
       <c r="J74" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="K74" s="87"/>
+      <c r="K74" t="s" s="363">
+        <v>227</v>
+      </c>
       <c r="L74" s="88" t="s">
         <v>49</v>
       </c>
       <c r="M74" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="N74" s="144"/>
+      <c r="N74" t="s" s="363">
+        <v>228</v>
+      </c>
       <c r="O74" s="70"/>
     </row>
     <row r="75" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7982,10 +7293,14 @@
         <v>174</v>
       </c>
       <c r="J75" s="208"/>
-      <c r="K75" s="146"/>
+      <c r="K75" t="s" s="363">
+        <v>228</v>
+      </c>
       <c r="L75" s="114"/>
       <c r="M75" s="115"/>
-      <c r="N75" s="83"/>
+      <c r="N75" t="s" s="363">
+        <v>228</v>
+      </c>
       <c r="O75" s="70"/>
     </row>
     <row r="76" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8009,14 +7324,18 @@
       <c r="J76" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="K76" s="143"/>
+      <c r="K76" t="s" s="363">
+        <v>228</v>
+      </c>
       <c r="L76" s="82" t="s">
         <v>35</v>
       </c>
       <c r="M76" s="147" t="s">
         <v>177</v>
       </c>
-      <c r="N76" s="144"/>
+      <c r="N76" t="s" s="363">
+        <v>228</v>
+      </c>
     </row>
     <row r="77" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="203"/>
@@ -8037,14 +7356,18 @@
       <c r="J77" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="K77" s="143"/>
+      <c r="K77" t="s" s="363">
+        <v>228</v>
+      </c>
       <c r="L77" s="88" t="s">
         <v>40</v>
       </c>
       <c r="M77" s="141">
         <v>1.35E-2</v>
       </c>
-      <c r="N77" s="144"/>
+      <c r="N77" t="s" s="363">
+        <v>228</v>
+      </c>
     </row>
     <row r="78" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="203"/>
@@ -8063,14 +7386,18 @@
       <c r="J78" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="K78" s="143"/>
+      <c r="K78" t="s" s="363">
+        <v>227</v>
+      </c>
       <c r="L78" s="88" t="s">
         <v>45</v>
       </c>
       <c r="M78" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="N78" s="144"/>
+      <c r="N78" t="s" s="363">
+        <v>228</v>
+      </c>
     </row>
     <row r="79" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="203"/>
@@ -8091,14 +7418,18 @@
       <c r="J79" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="K79" s="148"/>
+      <c r="K79" t="s" s="363">
+        <v>228</v>
+      </c>
       <c r="L79" s="88" t="s">
         <v>49</v>
       </c>
       <c r="M79" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="N79" s="144"/>
+      <c r="N79" t="s" s="363">
+        <v>228</v>
+      </c>
     </row>
     <row r="80" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="203"/>
@@ -8113,14 +7444,18 @@
         <v>174</v>
       </c>
       <c r="J80" s="209"/>
-      <c r="K80" s="149"/>
+      <c r="K80" t="s" s="363">
+        <v>228</v>
+      </c>
       <c r="L80" s="79" t="s">
         <v>180</v>
       </c>
       <c r="M80" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="N80" s="144"/>
+      <c r="N80" t="s" s="363">
+        <v>228</v>
+      </c>
     </row>
     <row r="81" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="205"/>
@@ -8133,14 +7468,26 @@
       <c r="H81" s="116"/>
       <c r="I81" s="114"/>
       <c r="J81" s="115"/>
-      <c r="K81" s="152"/>
+      <c r="K81" t="s" s="363">
+        <v>228</v>
+      </c>
       <c r="L81" s="114" t="s">
         <v>129</v>
       </c>
       <c r="M81" s="115" t="s">
         <v>182</v>
       </c>
-      <c r="N81" s="60"/>
+      <c r="N81" t="s" s="363">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="K82" t="s" s="363">
+        <v>227</v>
+      </c>
+      <c r="N82" t="s" s="363">
+        <v>228</v>
+      </c>
     </row>
     <row r="84" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>

--- a/nuevaHojaInstruccion.xlsx
+++ b/nuevaHojaInstruccion.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="114" sheetId="1" r:id="rId1"/>
-    <sheet name="111024" sheetId="2" r:id="rId2"/>
+    <sheet name="5" sheetId="1" r:id="rId1"/>
+    <sheet name="040823" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'7'!$A$1:$J$62</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="210">
   <si>
     <t>HOJA DE INSTRUCCIÓN DE INSPECCION/RECIBO DE MATERIA PRIMA</t>
   </si>
@@ -154,6 +154,9 @@
     <t>Aceptación</t>
   </si>
   <si>
+    <t>√</t>
+  </si>
+  <si>
     <t>Rechazo</t>
   </si>
   <si>
@@ -788,157 +791,81 @@
     </r>
   </si>
   <si>
-    <t>Rugosidad</t>
-  </si>
-  <si>
-    <t>65 Ra Max</t>
-  </si>
-  <si>
-    <t>RUGOSIDAD  µin</t>
-  </si>
-  <si>
-    <t>Dureza Rb</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>11 de octubre de 2024</t>
-  </si>
-  <si>
-    <t>Lamina en Cinta. Cal. 19 A1008-DS</t>
-  </si>
-  <si>
-    <t>B.F STEEL DE MEXICO S.A DE C.V</t>
-  </si>
-  <si>
-    <t>42490</t>
-  </si>
-  <si>
-    <t>19/08/2023</t>
-  </si>
-  <si>
-    <t>,040" ± ,002"</t>
-  </si>
-  <si>
-    <t>233125282</t>
-  </si>
-  <si>
-    <t>BF - 429 - 23</t>
-  </si>
-  <si>
-    <t>21/7642</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
+    <t>4 de agosto de 2023</t>
+  </si>
+  <si>
+    <t>Lamina en Hoja. Cal. 22 A1008-DS  </t>
+  </si>
+  <si>
+    <t>Serviacero Planos S de RL de CV</t>
+  </si>
+  <si>
+    <t>LE 288671</t>
+  </si>
+  <si>
+    <t>03/08/2023</t>
+  </si>
+  <si>
+    <t>0.0285" - 0.0315"</t>
+  </si>
+  <si>
+    <t>233125281</t>
+  </si>
+  <si>
+    <t>2348589</t>
+  </si>
+  <si>
+    <t>500/8915</t>
+  </si>
+  <si>
+    <t>0.0293</t>
+  </si>
+  <si>
+    <t>0.0296</t>
+  </si>
+  <si>
+    <t>0.0292</t>
+  </si>
+  <si>
+    <t>0.0297</t>
+  </si>
+  <si>
+    <t>0.0291</t>
+  </si>
+  <si>
+    <t>0.0298</t>
+  </si>
+  <si>
+    <t>0.0295</t>
+  </si>
+  <si>
+    <t>0.0290</t>
+  </si>
+  <si>
+    <t>0.0289</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>√</t>
-  </si>
-  <si>
-    <t>SE LIBERAN todas las PIEZAS, CON UN TOTAL DE1.578462 KG</t>
-  </si>
-  <si>
-    <t>MATERIAL DENTRO DE ESPECIFICACIÓN</t>
-  </si>
-  <si>
-    <t>JCSistemas</t>
-  </si>
-  <si>
-    <t>Cal 19   ,040" ± ,002"</t>
+    <t>Material dentro de especificacion</t>
+  </si>
+  <si>
+    <t>Se liberan 500 piezas, con un total de 8915 Kg.</t>
+  </si>
+  <si>
+    <t>LAURA </t>
+  </si>
+  <si>
+    <t>Cal 22
+   ,0299" ± ,0015"
+</t>
   </si>
   <si>
     <t>R</t>
-  </si>
-  <si>
-    <t>114</t>
   </si>
 </sst>
 </file>
@@ -950,7 +877,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1012,8 +939,8 @@
       <family val="2"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
+      <name val="Wingdings 2"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1022,10 +949,6 @@
     <font>
       <name val="Arial"/>
       <sz val="6.0"/>
-    </font>
-    <font>
-      <name val="Wingdings 2"/>
-      <sz val="11.0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1036,7 +959,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="93">
+  <borders count="89">
     <border>
       <left/>
       <right/>
@@ -2052,54 +1975,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
+      <top style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <top style="medium"/>
     </border>
     <border>
       <top style="thin"/>
@@ -2121,9 +2001,6 @@
     </border>
     <border>
       <top style="medium"/>
-    </border>
-    <border>
-      <top style="medium"/>
       <bottom style="medium"/>
     </border>
     <border>
@@ -2137,15 +2014,11 @@
       <top style="medium"/>
       <bottom style="medium"/>
     </border>
-    <border>
-      <left style="medium"/>
-      <top style="medium"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="379">
+  <cellXfs count="324">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2425,636 +2298,477 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="81" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="88" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="91" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="88" xfId="0" applyBorder="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <protection locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="92" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <protection locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <protection locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <protection locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <protection locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <protection locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <protection locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <protection locked="true"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="80" xfId="0" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <protection locked="true"/>
     </xf>
@@ -3071,57 +2785,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4295,21 +3959,21 @@
   </sheetPr>
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:G43"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="3.28515625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="5.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="3.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="3.28515625" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" width="13.140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="20.85546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="10.28515625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="11.28515625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="16.140625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="5.5703125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="3.7109375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="11.85546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4369,10 +4033,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="190" t="s">
+      <c r="G5" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="190"/>
+      <c r="H5" s="187"/>
       <c r="I5" s="8"/>
       <c r="J5" s="10"/>
     </row>
@@ -4380,15 +4044,15 @@
       <c r="A6" s="7"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="191" t="s">
-        <v>189</v>
-      </c>
-      <c r="H6" s="192"/>
+      <c r="G6" s="188" t="s">
+        <v>186</v>
+      </c>
+      <c r="H6" s="189"/>
       <c r="I6" s="8"/>
       <c r="J6" s="10"/>
     </row>
@@ -4436,23 +4100,23 @@
     </row>
     <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
-      <c r="B10" s="193" t="s">
+      <c r="B10" s="190" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="191"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="229" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="230"/>
+      <c r="G10" s="193" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" s="194"/>
+      <c r="I10" s="195" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="194"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="196" t="s">
-        <v>191</v>
-      </c>
-      <c r="F10" s="197"/>
-      <c r="G10" s="198" t="s">
-        <v>192</v>
-      </c>
-      <c r="H10" s="189"/>
-      <c r="I10" s="188" t="s">
-        <v>192</v>
-      </c>
-      <c r="J10" s="189"/>
+      <c r="J10" s="194"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
@@ -4501,21 +4165,21 @@
     <row r="14" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="32" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="33" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="33" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G14" s="28"/>
-      <c r="H14" s="161" t="s">
-        <v>197</v>
-      </c>
-      <c r="I14" s="162"/>
+      <c r="H14" s="170" t="s">
+        <v>194</v>
+      </c>
+      <c r="I14" s="171"/>
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4542,15 +4206,15 @@
     </row>
     <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
-      <c r="B17" s="163" t="s">
+      <c r="B17" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
       <c r="I17" s="36"/>
       <c r="J17" s="6"/>
     </row>
@@ -4587,92 +4251,92 @@
         <v>13</v>
       </c>
       <c r="D20" s="44"/>
-      <c r="E20" s="164" t="s">
+      <c r="E20" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="174"/>
       <c r="I20" s="45"/>
       <c r="J20" s="31"/>
     </row>
     <row r="21" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" t="s" s="241">
-        <v>198</v>
-      </c>
-      <c r="C21" t="s" s="245">
-        <v>199</v>
+      <c r="B21" t="s" s="238">
+        <v>195</v>
+      </c>
+      <c r="C21" t="s" s="242">
+        <v>196</v>
       </c>
       <c r="D21" s="44"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="176"/>
       <c r="I21" s="45"/>
       <c r="J21" s="31"/>
     </row>
     <row r="22" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" t="s" s="249">
-        <v>200</v>
-      </c>
-      <c r="C22" t="s" s="253">
-        <v>201</v>
+      <c r="B22" t="s" s="246">
+        <v>197</v>
+      </c>
+      <c r="C22" t="s" s="250">
+        <v>198</v>
       </c>
       <c r="D22" s="44"/>
-      <c r="E22" s="166"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="176"/>
+      <c r="H22" s="176"/>
       <c r="I22" s="45"/>
       <c r="J22" s="31"/>
     </row>
     <row r="23" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" t="s" s="257">
-        <v>202</v>
-      </c>
-      <c r="C23" t="s" s="261">
-        <v>203</v>
+      <c r="B23" t="s" s="254">
+        <v>199</v>
+      </c>
+      <c r="C23" t="s" s="258">
+        <v>199</v>
       </c>
       <c r="D23" s="44"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="167"/>
+      <c r="E23" s="175"/>
+      <c r="F23" s="176"/>
+      <c r="G23" s="176"/>
+      <c r="H23" s="176"/>
       <c r="I23" s="45"/>
       <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" t="s" s="265">
-        <v>204</v>
-      </c>
-      <c r="C24" t="s" s="269">
-        <v>205</v>
+      <c r="B24" t="s" s="262">
+        <v>199</v>
+      </c>
+      <c r="C24" t="s" s="266">
+        <v>200</v>
       </c>
       <c r="D24" s="44"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
+      <c r="E24" s="175"/>
+      <c r="F24" s="176"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="176"/>
       <c r="I24" s="45"/>
       <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" t="s" s="273">
-        <v>206</v>
-      </c>
-      <c r="C25" t="s" s="277">
-        <v>207</v>
+      <c r="B25" t="s" s="270">
+        <v>197</v>
+      </c>
+      <c r="C25" t="s" s="274">
+        <v>200</v>
       </c>
       <c r="D25" s="44"/>
-      <c r="E25" s="166"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="176"/>
+      <c r="G25" s="176"/>
+      <c r="H25" s="176"/>
       <c r="I25" s="45"/>
       <c r="J25" s="31"/>
       <c r="K25" t="s">
@@ -4681,82 +4345,82 @@
     </row>
     <row r="26" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" t="s" s="281">
-        <v>208</v>
-      </c>
-      <c r="C26" t="s" s="285">
-        <v>209</v>
+      <c r="B26" t="s" s="278">
+        <v>201</v>
+      </c>
+      <c r="C26" t="s" s="282">
+        <v>201</v>
       </c>
       <c r="D26" s="44"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="176"/>
       <c r="I26" s="45"/>
       <c r="J26" s="31"/>
       <c r="L26" s="47"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" t="s" s="289">
-        <v>210</v>
-      </c>
-      <c r="C27" t="s" s="293">
-        <v>84</v>
+      <c r="B27" t="s" s="286">
+        <v>199</v>
+      </c>
+      <c r="C27" t="s" s="290">
+        <v>195</v>
       </c>
       <c r="D27" s="44"/>
-      <c r="E27" s="166"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="176"/>
+      <c r="H27" s="176"/>
       <c r="I27" s="45"/>
       <c r="J27" s="31"/>
     </row>
     <row r="28" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" t="s" s="297">
-        <v>211</v>
-      </c>
-      <c r="C28" t="s" s="301">
-        <v>212</v>
+      <c r="B28" t="s" s="294">
+        <v>202</v>
+      </c>
+      <c r="C28" t="s" s="298">
+        <v>197</v>
       </c>
       <c r="D28" s="44"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
+      <c r="E28" s="175"/>
+      <c r="F28" s="176"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="176"/>
       <c r="I28" s="45"/>
       <c r="J28" s="31"/>
     </row>
     <row r="29" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" t="s" s="305">
-        <v>213</v>
-      </c>
-      <c r="C29" t="s" s="309">
-        <v>214</v>
+      <c r="B29" t="s" s="302">
+        <v>203</v>
+      </c>
+      <c r="C29" t="s" s="306">
+        <v>199</v>
       </c>
       <c r="D29" s="44"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
-      <c r="H29" s="167"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="176"/>
+      <c r="G29" s="176"/>
+      <c r="H29" s="176"/>
       <c r="I29" s="45"/>
       <c r="J29" s="31"/>
     </row>
     <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" t="s" s="313">
-        <v>215</v>
-      </c>
-      <c r="C30" t="s" s="317">
-        <v>216</v>
+      <c r="B30" t="s" s="310">
+        <v>199</v>
+      </c>
+      <c r="C30" t="s" s="314">
+        <v>202</v>
       </c>
       <c r="D30" s="44"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="169"/>
-      <c r="H30" s="169"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
       <c r="I30" s="45"/>
       <c r="J30" s="31"/>
     </row>
@@ -4786,42 +4450,42 @@
     </row>
     <row r="33" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
-      <c r="B33" s="163" t="s">
+      <c r="B33" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="163"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="170"/>
+      <c r="C33" s="172"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="179"/>
+      <c r="G33" s="179"/>
+      <c r="H33" s="179"/>
+      <c r="I33" s="179"/>
       <c r="J33" s="22"/>
     </row>
     <row r="34" spans="1:10" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="56"/>
-      <c r="B34" s="171"/>
-      <c r="C34" s="171"/>
-      <c r="D34" s="171"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
+      <c r="B34" s="180"/>
+      <c r="C34" s="180"/>
+      <c r="D34" s="180"/>
+      <c r="E34" s="180"/>
+      <c r="F34" s="181"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="181"/>
+      <c r="I34" s="181"/>
       <c r="J34" s="40"/>
     </row>
     <row r="35" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="173" t="s">
-        <v>229</v>
-      </c>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
-      <c r="E35" s="174"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
+      <c r="B35" s="182" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" s="183"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="183"/>
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4878,16 +4542,16 @@
         <v>17</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="8"/>
       <c r="F40" s="31"/>
       <c r="G40" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="361" t="s">
-        <v>227</v>
+        <v>19</v>
+      </c>
+      <c r="H40" s="318" t="s">
+        <v>204</v>
       </c>
       <c r="I40" s="26"/>
       <c r="J40" s="10"/>
@@ -4898,90 +4562,66 @@
       <c r="C41" s="58"/>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
-      <c r="F41" s="8"/>
+      <c r="F41" s="58"/>
       <c r="G41" s="58"/>
       <c r="H41" s="58"/>
       <c r="I41" s="58"/>
       <c r="J41" s="10"/>
     </row>
-    <row r="42" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="B42" s="238" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="239"/>
-      <c r="D42" s="239"/>
-      <c r="E42" s="239"/>
-      <c r="F42" s="239"/>
-      <c r="G42" s="240"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
+      <c r="B42" s="184" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="185"/>
+      <c r="D42" s="185"/>
+      <c r="E42" s="185"/>
+      <c r="F42" s="185"/>
+      <c r="G42" s="185"/>
+      <c r="H42" s="185"/>
+      <c r="I42" s="186"/>
       <c r="J42" s="10"/>
     </row>
     <row r="43" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
-      <c r="B43" s="236" t="s">
-        <v>230</v>
-      </c>
-      <c r="C43" s="236"/>
-      <c r="D43" s="236"/>
-      <c r="E43" s="236"/>
-      <c r="F43" s="236"/>
-      <c r="G43" s="236"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+      <c r="B43" s="153" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" s="154"/>
+      <c r="D43" s="154"/>
+      <c r="E43" s="154"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="154"/>
       <c r="J43" s="10"/>
     </row>
     <row r="44" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
-      <c r="B44" s="234" t="s">
-        <v>186</v>
-      </c>
-      <c r="C44" t="s" s="321">
-        <v>217</v>
-      </c>
-      <c r="D44" t="s" s="329">
-        <v>219</v>
-      </c>
-      <c r="E44" t="s" s="337">
-        <v>221</v>
-      </c>
-      <c r="F44" t="s" s="345">
-        <v>223</v>
-      </c>
-      <c r="G44" t="s" s="353">
-        <v>225</v>
-      </c>
-      <c r="H44" s="237"/>
-      <c r="I44" s="49"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
       <c r="J44" s="10"/>
     </row>
     <row r="45" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
-      <c r="B45" s="234" t="s">
-        <v>187</v>
-      </c>
-      <c r="C45" t="s" s="325">
-        <v>218</v>
-      </c>
-      <c r="D45" t="s" s="333">
-        <v>220</v>
-      </c>
-      <c r="E45" t="s" s="341">
-        <v>222</v>
-      </c>
-      <c r="F45" t="s" s="349">
-        <v>224</v>
-      </c>
-      <c r="G45" t="s" s="357">
-        <v>226</v>
-      </c>
-      <c r="H45" s="235"/>
-      <c r="I45" s="8"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
       <c r="J45" s="10"/>
     </row>
     <row r="46" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="57"/>
       <c r="C46" s="57"/>
       <c r="D46" s="57"/>
@@ -4990,7 +4630,7 @@
       <c r="G46" s="57"/>
       <c r="H46" s="57"/>
       <c r="I46" s="57"/>
-      <c r="J46" s="8"/>
+      <c r="J46" s="10"/>
     </row>
     <row r="47" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
@@ -5011,11 +4651,11 @@
       <c r="D48" s="28"/>
       <c r="E48" s="61"/>
       <c r="F48" s="62"/>
-      <c r="G48" s="175" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="176"/>
-      <c r="I48" s="177"/>
+      <c r="G48" s="155" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="156"/>
+      <c r="I48" s="157"/>
       <c r="J48" s="10"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5025,9 +4665,9 @@
       <c r="D49" s="28"/>
       <c r="E49" s="61"/>
       <c r="F49" s="62"/>
-      <c r="G49" s="178"/>
-      <c r="H49" s="179"/>
-      <c r="I49" s="180"/>
+      <c r="G49" s="158"/>
+      <c r="H49" s="159"/>
+      <c r="I49" s="160"/>
       <c r="J49" s="10"/>
     </row>
     <row r="50" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5037,9 +4677,9 @@
       <c r="D50" s="28"/>
       <c r="E50" s="61"/>
       <c r="F50" s="62"/>
-      <c r="G50" s="178"/>
-      <c r="H50" s="179"/>
-      <c r="I50" s="180"/>
+      <c r="G50" s="158"/>
+      <c r="H50" s="159"/>
+      <c r="I50" s="160"/>
       <c r="J50" s="10"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5049,9 +4689,9 @@
       <c r="D51" s="28"/>
       <c r="E51" s="61"/>
       <c r="F51" s="62"/>
-      <c r="G51" s="178"/>
-      <c r="H51" s="179"/>
-      <c r="I51" s="180"/>
+      <c r="G51" s="158"/>
+      <c r="H51" s="159"/>
+      <c r="I51" s="160"/>
       <c r="J51" s="10"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5061,9 +4701,9 @@
       <c r="D52" s="28"/>
       <c r="E52" s="61"/>
       <c r="F52" s="62"/>
-      <c r="G52" s="178"/>
-      <c r="H52" s="179"/>
-      <c r="I52" s="180"/>
+      <c r="G52" s="158"/>
+      <c r="H52" s="159"/>
+      <c r="I52" s="160"/>
       <c r="J52" s="10"/>
     </row>
     <row r="53" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5073,9 +4713,9 @@
       <c r="D53" s="28"/>
       <c r="E53" s="61"/>
       <c r="F53" s="62"/>
-      <c r="G53" s="178"/>
-      <c r="H53" s="179"/>
-      <c r="I53" s="180"/>
+      <c r="G53" s="158"/>
+      <c r="H53" s="159"/>
+      <c r="I53" s="160"/>
       <c r="J53" s="10"/>
     </row>
     <row r="54" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5085,9 +4725,9 @@
       <c r="D54" s="28"/>
       <c r="E54" s="61"/>
       <c r="F54" s="62"/>
-      <c r="G54" s="181"/>
-      <c r="H54" s="182"/>
-      <c r="I54" s="183"/>
+      <c r="G54" s="161"/>
+      <c r="H54" s="162"/>
+      <c r="I54" s="163"/>
       <c r="J54" s="10"/>
     </row>
     <row r="55" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5138,11 +4778,11 @@
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="44"/>
-      <c r="B59" s="184" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" s="184"/>
-      <c r="D59" s="184"/>
+      <c r="B59" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
       <c r="G59" s="28"/>
@@ -5152,9 +4792,9 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="44"/>
-      <c r="B60" s="184"/>
-      <c r="C60" s="184"/>
-      <c r="D60" s="184"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
       <c r="G60" s="28"/>
@@ -5164,11 +4804,11 @@
     </row>
     <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="44"/>
-      <c r="B61" s="185" t="s">
-        <v>231</v>
-      </c>
-      <c r="C61" s="186"/>
-      <c r="D61" s="187"/>
+      <c r="B61" s="165" t="s">
+        <v>207</v>
+      </c>
+      <c r="C61" s="166"/>
+      <c r="D61" s="167"/>
       <c r="E61" s="67"/>
       <c r="F61" s="67"/>
       <c r="G61" s="67"/>
@@ -5177,27 +4817,26 @@
       <c r="J61" s="68"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="159" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="159"/>
-      <c r="D62" s="159"/>
-      <c r="E62" s="160"/>
-      <c r="F62" s="160"/>
+      <c r="B62" s="168" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
+      <c r="E62" s="169"/>
+      <c r="F62" s="169"/>
       <c r="G62" s="67"/>
       <c r="H62" s="67"/>
       <c r="I62" s="67"/>
       <c r="J62" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B42:G42"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="H14:I14"/>
@@ -5205,35 +4844,13 @@
     <mergeCell ref="E20:H30"/>
     <mergeCell ref="B33:I34"/>
     <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B43:I43"/>
     <mergeCell ref="G48:I54"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:D61"/>
   </mergeCells>
-  <conditionalFormatting sqref="D44:G44">
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="greaterThan">
-      <formula>60</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="between">
-      <formula>0</formula>
-      <formula>65</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:G45">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="between">
-      <formula>35</formula>
-      <formula>60</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="greaterThan">
-      <formula>60</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="between">
-      <formula>0</formula>
-      <formula>65</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.62992125984251968" right="0.47244094488188981" top="0.27559055118110237" bottom="0.47244094488188981" header="0.15748031496062992" footer="0"/>
   <pageSetup scale="86" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -5256,26 +4873,26 @@
   </sheetPr>
   <dimension ref="A1:T84"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A67" zoomScale="120" zoomScaleNormal="150" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="R83" sqref="R83"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="150" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="3.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="4.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="4.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="3.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="3.140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="11.28515625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="3.85546875" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.42578125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="4.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="9.0" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="4.5703125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="8.7109375" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.42578125" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.28515625" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="3.140625" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="6.28515625" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.85546875" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="3.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -5311,125 +4928,125 @@
       <c r="O2" s="68"/>
     </row>
     <row r="3" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="220"/>
-      <c r="B3" s="223" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="223"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="224"/>
+      <c r="A3" s="215"/>
+      <c r="B3" s="218" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="219"/>
       <c r="O3" s="70"/>
     </row>
     <row r="4" spans="1:15" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="221"/>
-      <c r="B4" s="225"/>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="225"/>
-      <c r="H4" s="225"/>
-      <c r="I4" s="225"/>
-      <c r="J4" s="225"/>
-      <c r="K4" s="225"/>
-      <c r="L4" s="225"/>
-      <c r="M4" s="225"/>
-      <c r="N4" s="226"/>
+      <c r="A4" s="216"/>
+      <c r="B4" s="220"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
+      <c r="K4" s="220"/>
+      <c r="L4" s="220"/>
+      <c r="M4" s="220"/>
+      <c r="N4" s="221"/>
       <c r="O4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="222"/>
-      <c r="B5" s="227"/>
-      <c r="C5" s="227"/>
-      <c r="D5" s="227"/>
-      <c r="E5" s="227"/>
-      <c r="F5" s="227"/>
-      <c r="G5" s="227"/>
-      <c r="H5" s="227"/>
-      <c r="I5" s="227"/>
-      <c r="J5" s="227"/>
-      <c r="K5" s="227"/>
-      <c r="L5" s="227"/>
-      <c r="M5" s="227"/>
-      <c r="N5" s="228"/>
+      <c r="A5" s="217"/>
+      <c r="B5" s="222"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="222"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="222"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="222"/>
+      <c r="J5" s="222"/>
+      <c r="K5" s="222"/>
+      <c r="L5" s="222"/>
+      <c r="M5" s="222"/>
+      <c r="N5" s="223"/>
       <c r="O5" s="70"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="201" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="229"/>
-      <c r="C6" s="230" t="s">
+      <c r="A6" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="230" t="s">
+      <c r="B6" s="224"/>
+      <c r="C6" s="225" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="230"/>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="230" t="s">
+      <c r="D6" s="225"/>
+      <c r="E6" s="225" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="230"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="226"/>
+      <c r="I6" s="225" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="225"/>
       <c r="K6" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="232" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="233"/>
+      <c r="L6" s="227" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="228"/>
       <c r="N6" s="72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O6" s="70"/>
     </row>
     <row r="7" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="201" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="202"/>
+      <c r="A7" s="196" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="197"/>
       <c r="C7" s="73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="75"/>
       <c r="F7" s="76"/>
       <c r="G7" s="77"/>
       <c r="H7" s="78"/>
       <c r="I7" s="79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J7" s="80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="81"/>
       <c r="L7" s="82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N7" s="83"/>
       <c r="O7" s="70"/>
     </row>
     <row r="8" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="203"/>
-      <c r="B8" s="204"/>
+      <c r="A8" s="198"/>
+      <c r="B8" s="199"/>
       <c r="C8" s="73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="84">
         <v>40271</v>
@@ -5439,26 +5056,26 @@
       <c r="G8" s="74"/>
       <c r="H8" s="86"/>
       <c r="I8" s="79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J8" s="80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8" s="87"/>
       <c r="L8" s="88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M8" s="80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N8" s="83"/>
       <c r="O8" s="70"/>
     </row>
     <row r="9" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="203"/>
-      <c r="B9" s="204"/>
+      <c r="A9" s="198"/>
+      <c r="B9" s="199"/>
       <c r="C9" s="73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="84">
         <v>40218</v>
@@ -5468,29 +5085,29 @@
       <c r="G9" s="89"/>
       <c r="H9" s="90"/>
       <c r="I9" s="79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J9" s="80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9" s="87"/>
       <c r="L9" s="88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M9" s="80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N9" s="83"/>
       <c r="O9" s="70"/>
     </row>
     <row r="10" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="203"/>
-      <c r="B10" s="204"/>
+      <c r="A10" s="198"/>
+      <c r="B10" s="199"/>
       <c r="C10" s="89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="92"/>
       <c r="F10" s="89"/>
@@ -5500,50 +5117,50 @@
       <c r="J10" s="40"/>
       <c r="K10" s="87"/>
       <c r="L10" s="88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M10" s="80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N10" s="83"/>
       <c r="O10" s="70"/>
     </row>
     <row r="11" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="201" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="202"/>
+      <c r="A11" s="196" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="197"/>
       <c r="C11" s="93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" s="95"/>
       <c r="F11" s="76"/>
       <c r="G11" s="95"/>
       <c r="H11" s="95"/>
       <c r="I11" s="93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J11" s="78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" s="96"/>
       <c r="L11" s="82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N11" s="83"/>
       <c r="O11" s="70"/>
     </row>
     <row r="12" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="203"/>
-      <c r="B12" s="204"/>
+      <c r="A12" s="198"/>
+      <c r="B12" s="199"/>
       <c r="C12" s="79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="97">
         <v>40585</v>
@@ -5553,26 +5170,26 @@
       <c r="G12" s="73"/>
       <c r="H12" s="73"/>
       <c r="I12" s="79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J12" s="80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K12" s="87"/>
       <c r="L12" s="88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M12" s="80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N12" s="83"/>
       <c r="O12" s="70"/>
     </row>
     <row r="13" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="203"/>
-      <c r="B13" s="204"/>
+      <c r="A13" s="198"/>
+      <c r="B13" s="199"/>
       <c r="C13" s="79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="97">
         <v>40585</v>
@@ -5582,86 +5199,86 @@
       <c r="G13" s="73"/>
       <c r="H13" s="73"/>
       <c r="I13" s="79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J13" s="80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K13" s="87"/>
       <c r="L13" s="88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N13" s="83"/>
       <c r="O13" s="70"/>
     </row>
     <row r="14" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="203"/>
-      <c r="B14" s="204"/>
+      <c r="A14" s="198"/>
+      <c r="B14" s="199"/>
       <c r="C14" s="92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="98" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="73"/>
       <c r="H14" s="73"/>
       <c r="I14" s="79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J14" s="80" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K14" s="87"/>
       <c r="L14" s="88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M14" s="80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N14" s="83"/>
       <c r="O14" s="70"/>
     </row>
     <row r="15" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="201" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="202"/>
+      <c r="A15" s="196" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="197"/>
       <c r="C15" s="93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="99" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15" s="76"/>
       <c r="F15" s="76"/>
       <c r="G15" s="77"/>
       <c r="H15" s="77"/>
       <c r="I15" s="100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J15" s="99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K15" s="101"/>
       <c r="L15" s="102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="103" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N15" s="101"/>
       <c r="O15" s="70"/>
     </row>
     <row r="16" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="203"/>
-      <c r="B16" s="204"/>
+      <c r="A16" s="198"/>
+      <c r="B16" s="199"/>
       <c r="C16" s="79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="104">
         <v>40211</v>
@@ -5671,26 +5288,26 @@
       <c r="G16" s="74"/>
       <c r="H16" s="74"/>
       <c r="I16" s="105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J16" s="106" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K16" s="101"/>
       <c r="L16" s="107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M16" s="108" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N16" s="101"/>
       <c r="O16" s="70"/>
     </row>
     <row r="17" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="203"/>
-      <c r="B17" s="204"/>
+      <c r="A17" s="198"/>
+      <c r="B17" s="199"/>
       <c r="C17" s="79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="97"/>
       <c r="E17" s="74"/>
@@ -5698,29 +5315,29 @@
       <c r="G17" s="89"/>
       <c r="H17" s="89"/>
       <c r="I17" s="105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J17" s="106" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K17" s="101"/>
       <c r="L17" s="107" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M17" s="108" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N17" s="101"/>
       <c r="O17" s="70"/>
     </row>
     <row r="18" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="203"/>
-      <c r="B18" s="204"/>
+      <c r="A18" s="198"/>
+      <c r="B18" s="199"/>
       <c r="C18" s="92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" s="97" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E18" s="74"/>
       <c r="F18" s="74"/>
@@ -5730,40 +5347,40 @@
       <c r="J18" s="109"/>
       <c r="K18" s="110"/>
       <c r="L18" s="107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="108" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N18" s="101"/>
       <c r="O18" s="70"/>
     </row>
     <row r="19" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="203"/>
-      <c r="B19" s="204"/>
+      <c r="A19" s="198"/>
+      <c r="B19" s="199"/>
       <c r="C19" s="79"/>
       <c r="D19" s="97"/>
       <c r="E19" s="74"/>
       <c r="F19" s="74"/>
       <c r="G19" s="89" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H19" s="89"/>
       <c r="I19" s="79"/>
       <c r="J19" s="109"/>
       <c r="K19" s="110"/>
       <c r="L19" s="107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M19" s="108" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N19" s="101"/>
       <c r="O19" s="70"/>
     </row>
     <row r="20" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="203"/>
-      <c r="B20" s="204"/>
+      <c r="A20" s="198"/>
+      <c r="B20" s="199"/>
       <c r="C20" s="79"/>
       <c r="D20" s="97"/>
       <c r="E20" s="74"/>
@@ -5774,17 +5391,17 @@
       <c r="J20" s="109"/>
       <c r="K20" s="110"/>
       <c r="L20" s="107" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M20" s="108" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N20" s="101"/>
       <c r="O20" s="70"/>
     </row>
     <row r="21" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="203"/>
-      <c r="B21" s="204"/>
+      <c r="A21" s="198"/>
+      <c r="B21" s="199"/>
       <c r="C21" s="92"/>
       <c r="D21" s="98"/>
       <c r="E21" s="89"/>
@@ -5795,50 +5412,50 @@
       <c r="J21" s="80"/>
       <c r="K21" s="87"/>
       <c r="L21" s="107" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M21" s="108" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N21" s="101"/>
       <c r="O21" s="70"/>
     </row>
     <row r="22" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="201" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="202"/>
+      <c r="A22" s="196" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="197"/>
       <c r="C22" s="93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" s="94" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E22" s="75"/>
       <c r="F22" s="76"/>
       <c r="G22" s="76"/>
       <c r="H22" s="94"/>
       <c r="I22" s="75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J22" s="111" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K22" s="96"/>
       <c r="L22" s="82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M22" s="78" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N22" s="83"/>
       <c r="O22" s="70"/>
     </row>
     <row r="23" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="203"/>
-      <c r="B23" s="204"/>
+      <c r="A23" s="198"/>
+      <c r="B23" s="199"/>
       <c r="C23" s="79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="97">
         <v>35850</v>
@@ -5851,19 +5468,19 @@
       <c r="J23" s="109"/>
       <c r="K23" s="110"/>
       <c r="L23" s="88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M23" s="80" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N23" s="83"/>
       <c r="O23" s="70"/>
     </row>
     <row r="24" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="203"/>
-      <c r="B24" s="204"/>
+      <c r="A24" s="198"/>
+      <c r="B24" s="199"/>
       <c r="C24" s="79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24" s="97">
         <v>40218</v>
@@ -5876,22 +5493,22 @@
       <c r="J24" s="109"/>
       <c r="K24" s="110"/>
       <c r="L24" s="88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M24" s="80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N24" s="83"/>
       <c r="O24" s="70"/>
     </row>
     <row r="25" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="203"/>
-      <c r="B25" s="204"/>
+      <c r="A25" s="198"/>
+      <c r="B25" s="199"/>
       <c r="C25" s="92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D25" s="98" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E25" s="112"/>
       <c r="F25" s="112"/>
@@ -5901,50 +5518,50 @@
       <c r="J25" s="109"/>
       <c r="K25" s="110"/>
       <c r="L25" s="88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M25" s="80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N25" s="83"/>
       <c r="O25" s="70"/>
     </row>
     <row r="26" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="201" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="202"/>
+      <c r="A26" s="196" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="197"/>
       <c r="C26" s="93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D26" s="94" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
       <c r="G26" s="77"/>
       <c r="H26" s="77"/>
       <c r="I26" s="82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J26" s="113" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K26" s="96"/>
       <c r="L26" s="82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M26" s="78" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N26" s="83"/>
       <c r="O26" s="70"/>
     </row>
     <row r="27" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="203"/>
-      <c r="B27" s="204"/>
+      <c r="A27" s="198"/>
+      <c r="B27" s="199"/>
       <c r="C27" s="79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" s="97">
         <v>35850</v>
@@ -5957,19 +5574,19 @@
       <c r="J27" s="109"/>
       <c r="K27" s="110"/>
       <c r="L27" s="88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M27" s="80" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N27" s="83"/>
       <c r="O27" s="70"/>
     </row>
     <row r="28" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="203"/>
-      <c r="B28" s="204"/>
+      <c r="A28" s="198"/>
+      <c r="B28" s="199"/>
       <c r="C28" s="79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28" s="97">
         <v>40218</v>
@@ -5982,22 +5599,22 @@
       <c r="J28" s="109"/>
       <c r="K28" s="110"/>
       <c r="L28" s="88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M28" s="80" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N28" s="83"/>
       <c r="O28" s="70"/>
     </row>
     <row r="29" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="203"/>
-      <c r="B29" s="204"/>
+      <c r="A29" s="198"/>
+      <c r="B29" s="199"/>
       <c r="C29" s="92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D29" s="98" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
@@ -6007,50 +5624,50 @@
       <c r="J29" s="80"/>
       <c r="K29" s="87"/>
       <c r="L29" s="88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M29" s="80" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N29" s="83"/>
       <c r="O29" s="70"/>
     </row>
     <row r="30" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="201" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="202"/>
+      <c r="A30" s="196" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="197"/>
       <c r="C30" s="93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D30" s="94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E30" s="76"/>
       <c r="F30" s="76"/>
       <c r="G30" s="77"/>
       <c r="H30" s="77"/>
       <c r="I30" s="93" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J30" s="78" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K30" s="96"/>
       <c r="L30" s="82" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M30" s="113" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N30" s="83"/>
       <c r="O30" s="70"/>
     </row>
     <row r="31" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="203"/>
-      <c r="B31" s="204"/>
+      <c r="A31" s="198"/>
+      <c r="B31" s="199"/>
       <c r="C31" s="79" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="97">
         <v>36725</v>
@@ -6060,26 +5677,26 @@
       <c r="G31" s="73"/>
       <c r="H31" s="73"/>
       <c r="I31" s="79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J31" s="80" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K31" s="87"/>
       <c r="L31" s="88" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M31" s="109" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N31" s="83"/>
       <c r="O31" s="70"/>
     </row>
     <row r="32" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="203"/>
-      <c r="B32" s="204"/>
+      <c r="A32" s="198"/>
+      <c r="B32" s="199"/>
       <c r="C32" s="79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D32" s="97">
         <v>40218</v>
@@ -6089,53 +5706,53 @@
       <c r="G32" s="73"/>
       <c r="H32" s="73"/>
       <c r="I32" s="79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J32" s="80" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K32" s="87"/>
       <c r="L32" s="88" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M32" s="109" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N32" s="83"/>
       <c r="O32" s="70"/>
     </row>
     <row r="33" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="203"/>
-      <c r="B33" s="204"/>
+      <c r="A33" s="198"/>
+      <c r="B33" s="199"/>
       <c r="C33" s="92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D33" s="98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E33" s="73"/>
       <c r="F33" s="73"/>
       <c r="G33" s="73"/>
       <c r="H33" s="73"/>
       <c r="I33" s="79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J33" s="80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K33" s="87"/>
       <c r="L33" s="88" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M33" s="109" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N33" s="83"/>
       <c r="O33" s="70"/>
     </row>
     <row r="34" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="210"/>
-      <c r="B34" s="211"/>
+      <c r="A34" s="213"/>
+      <c r="B34" s="214"/>
       <c r="C34" s="92"/>
       <c r="D34" s="98"/>
       <c r="E34" s="73"/>
@@ -6146,17 +5763,17 @@
       <c r="J34" s="80"/>
       <c r="K34" s="87"/>
       <c r="L34" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="M34" s="109" t="s">
         <v>109</v>
-      </c>
-      <c r="M34" s="109" t="s">
-        <v>108</v>
       </c>
       <c r="N34" s="83"/>
       <c r="O34" s="70"/>
     </row>
     <row r="35" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="205"/>
-      <c r="B35" s="206"/>
+      <c r="A35" s="200"/>
+      <c r="B35" s="201"/>
       <c r="C35" s="114"/>
       <c r="D35" s="115"/>
       <c r="E35" s="116"/>
@@ -6167,50 +5784,50 @@
       <c r="J35" s="115"/>
       <c r="K35" s="87"/>
       <c r="L35" s="114" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M35" s="117" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N35" s="83"/>
       <c r="O35" s="70"/>
     </row>
     <row r="36" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="201" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="202"/>
+      <c r="A36" s="196" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="197"/>
       <c r="C36" s="93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D36" s="94" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E36" s="75"/>
       <c r="F36" s="76"/>
       <c r="G36" s="76"/>
       <c r="H36" s="94"/>
       <c r="I36" s="82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J36" s="113" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K36" s="96"/>
       <c r="L36" s="82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M36" s="78" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N36" s="83"/>
       <c r="O36" s="70"/>
     </row>
     <row r="37" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="203"/>
-      <c r="B37" s="204"/>
+      <c r="A37" s="198"/>
+      <c r="B37" s="199"/>
       <c r="C37" s="79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D37" s="97">
         <v>37092</v>
@@ -6219,25 +5836,25 @@
       <c r="F37" s="74"/>
       <c r="G37" s="74"/>
       <c r="H37" s="86"/>
-      <c r="I37" s="199" t="s">
-        <v>183</v>
-      </c>
-      <c r="J37" s="200"/>
+      <c r="I37" s="235" t="s">
+        <v>184</v>
+      </c>
+      <c r="J37" s="236"/>
       <c r="K37" s="87"/>
       <c r="L37" s="88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M37" s="80" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N37" s="83"/>
       <c r="O37" s="70"/>
     </row>
     <row r="38" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="203"/>
-      <c r="B38" s="204"/>
+      <c r="A38" s="198"/>
+      <c r="B38" s="199"/>
       <c r="C38" s="79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D38" s="97">
         <v>40218</v>
@@ -6246,26 +5863,26 @@
       <c r="F38" s="74"/>
       <c r="G38" s="74"/>
       <c r="H38" s="74"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="156"/>
+      <c r="I38" s="233"/>
+      <c r="J38" s="234"/>
       <c r="K38" s="118"/>
       <c r="L38" s="88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M38" s="80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N38" s="83"/>
       <c r="O38" s="70"/>
     </row>
     <row r="39" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="203"/>
-      <c r="B39" s="204"/>
+      <c r="A39" s="198"/>
+      <c r="B39" s="199"/>
       <c r="C39" s="92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D39" s="98" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E39" s="73"/>
       <c r="F39" s="73"/>
@@ -6275,10 +5892,10 @@
       <c r="J39" s="80"/>
       <c r="K39" s="87"/>
       <c r="L39" s="88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M39" s="80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N39" s="83"/>
       <c r="O39" s="70"/>
@@ -6288,32 +5905,32 @@
       <c r="T39" s="61"/>
     </row>
     <row r="40" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="212" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="213"/>
+      <c r="A40" s="205" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="206"/>
       <c r="C40" s="100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D40" s="119" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E40" s="120"/>
       <c r="F40" s="121"/>
       <c r="G40" s="122"/>
       <c r="H40" s="122"/>
       <c r="I40" s="100" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J40" s="99" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K40" s="123"/>
       <c r="L40" s="102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M40" s="103" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N40" s="83"/>
       <c r="O40" s="124"/>
@@ -6324,10 +5941,10 @@
       <c r="T40" s="61"/>
     </row>
     <row r="41" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="214"/>
-      <c r="B41" s="215"/>
+      <c r="A41" s="207"/>
+      <c r="B41" s="208"/>
       <c r="C41" s="105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D41" s="104">
         <v>36755</v>
@@ -6337,17 +5954,17 @@
       <c r="G41" s="127"/>
       <c r="H41" s="127"/>
       <c r="I41" s="105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J41" s="106" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K41" s="130"/>
       <c r="L41" s="107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M41" s="108" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N41" s="83"/>
       <c r="O41" s="124"/>
@@ -6358,10 +5975,10 @@
       <c r="T41" s="126"/>
     </row>
     <row r="42" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="214"/>
-      <c r="B42" s="215"/>
+      <c r="A42" s="207"/>
+      <c r="B42" s="208"/>
       <c r="C42" s="105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D42" s="104">
         <v>40218</v>
@@ -6371,17 +5988,17 @@
       <c r="G42" s="127"/>
       <c r="H42" s="127"/>
       <c r="I42" s="105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J42" s="106" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K42" s="130"/>
       <c r="L42" s="107" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M42" s="108" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N42" s="83"/>
       <c r="O42" s="124"/>
@@ -6392,30 +6009,30 @@
       <c r="T42" s="126"/>
     </row>
     <row r="43" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="214"/>
-      <c r="B43" s="215"/>
+      <c r="A43" s="207"/>
+      <c r="B43" s="208"/>
       <c r="C43" s="131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D43" s="132" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E43" s="127"/>
       <c r="F43" s="127"/>
       <c r="G43" s="127"/>
       <c r="H43" s="127"/>
       <c r="I43" s="105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J43" s="106" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K43" s="130"/>
       <c r="L43" s="107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M43" s="108" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N43" s="83"/>
       <c r="O43" s="124"/>
@@ -6426,8 +6043,8 @@
       <c r="T43" s="126"/>
     </row>
     <row r="44" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="216"/>
-      <c r="B44" s="217"/>
+      <c r="A44" s="209"/>
+      <c r="B44" s="210"/>
       <c r="C44" s="131"/>
       <c r="D44" s="132"/>
       <c r="E44" s="127"/>
@@ -6435,17 +6052,17 @@
       <c r="G44" s="127"/>
       <c r="H44" s="127"/>
       <c r="I44" s="105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J44" s="106" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K44" s="130"/>
       <c r="L44" s="107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M44" s="108" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N44" s="83"/>
       <c r="O44" s="124"/>
@@ -6456,8 +6073,8 @@
       <c r="T44" s="61"/>
     </row>
     <row r="45" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="216"/>
-      <c r="B45" s="217"/>
+      <c r="A45" s="209"/>
+      <c r="B45" s="210"/>
       <c r="C45" s="131"/>
       <c r="D45" s="132"/>
       <c r="E45" s="127"/>
@@ -6468,10 +6085,10 @@
       <c r="J45" s="106"/>
       <c r="K45" s="130"/>
       <c r="L45" s="107" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M45" s="108" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N45" s="83"/>
       <c r="O45" s="124"/>
@@ -6482,8 +6099,8 @@
       <c r="T45" s="61"/>
     </row>
     <row r="46" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="216"/>
-      <c r="B46" s="217"/>
+      <c r="A46" s="209"/>
+      <c r="B46" s="210"/>
       <c r="C46" s="131"/>
       <c r="D46" s="132"/>
       <c r="E46" s="127"/>
@@ -6494,10 +6111,10 @@
       <c r="J46" s="106"/>
       <c r="K46" s="130"/>
       <c r="L46" s="107" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M46" s="108" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N46" s="83"/>
       <c r="O46" s="124"/>
@@ -6508,8 +6125,8 @@
       <c r="T46" s="61"/>
     </row>
     <row r="47" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="218"/>
-      <c r="B47" s="219"/>
+      <c r="A47" s="211"/>
+      <c r="B47" s="212"/>
       <c r="C47" s="133"/>
       <c r="D47" s="134"/>
       <c r="E47" s="135"/>
@@ -6520,10 +6137,10 @@
       <c r="J47" s="134"/>
       <c r="K47" s="130"/>
       <c r="L47" s="133" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M47" s="136" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N47" s="83"/>
       <c r="O47" s="137"/>
@@ -6534,32 +6151,32 @@
       <c r="T47" s="61"/>
     </row>
     <row r="48" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="201" t="s">
-        <v>131</v>
-      </c>
-      <c r="B48" s="202"/>
+      <c r="A48" s="196" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="197"/>
       <c r="C48" s="93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D48" s="94" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E48" s="76"/>
       <c r="F48" s="76"/>
       <c r="G48" s="77"/>
       <c r="H48" s="77"/>
       <c r="I48" s="79" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J48" s="80" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K48" s="96"/>
       <c r="L48" s="82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M48" s="113" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N48" s="83"/>
       <c r="O48" s="70"/>
@@ -6569,10 +6186,10 @@
       <c r="T48" s="61"/>
     </row>
     <row r="49" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="203"/>
-      <c r="B49" s="204"/>
+      <c r="A49" s="198"/>
+      <c r="B49" s="199"/>
       <c r="C49" s="79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D49" s="97">
         <v>36314</v>
@@ -6582,17 +6199,17 @@
       <c r="G49" s="73"/>
       <c r="H49" s="73"/>
       <c r="I49" s="79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J49" s="80" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K49" s="87"/>
       <c r="L49" s="88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M49" s="109" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N49" s="83"/>
       <c r="O49" s="70"/>
@@ -6602,10 +6219,10 @@
       <c r="T49" s="61"/>
     </row>
     <row r="50" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="203"/>
-      <c r="B50" s="204"/>
+      <c r="A50" s="198"/>
+      <c r="B50" s="199"/>
       <c r="C50" s="79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D50" s="97">
         <v>40218</v>
@@ -6615,17 +6232,17 @@
       <c r="G50" s="73"/>
       <c r="H50" s="73"/>
       <c r="I50" s="79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J50" s="80" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K50" s="87"/>
       <c r="L50" s="88" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M50" s="109" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N50" s="83"/>
       <c r="O50" s="70"/>
@@ -6635,30 +6252,30 @@
       <c r="T50" s="61"/>
     </row>
     <row r="51" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="203"/>
-      <c r="B51" s="204"/>
+      <c r="A51" s="198"/>
+      <c r="B51" s="199"/>
       <c r="C51" s="92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D51" s="98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E51" s="73"/>
       <c r="F51" s="73"/>
       <c r="G51" s="73"/>
       <c r="H51" s="73"/>
       <c r="I51" s="79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J51" s="80" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K51" s="87"/>
       <c r="L51" s="88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M51" s="109" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N51" s="83"/>
       <c r="O51" s="70"/>
@@ -6668,8 +6285,8 @@
       <c r="T51" s="61"/>
     </row>
     <row r="52" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="210"/>
-      <c r="B52" s="211"/>
+      <c r="A52" s="213"/>
+      <c r="B52" s="214"/>
       <c r="C52" s="92"/>
       <c r="D52" s="98"/>
       <c r="E52" s="73"/>
@@ -6680,17 +6297,17 @@
       <c r="J52" s="80"/>
       <c r="K52" s="87"/>
       <c r="L52" s="88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M52" s="109" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N52" s="83"/>
       <c r="O52" s="70"/>
     </row>
     <row r="53" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="210"/>
-      <c r="B53" s="211"/>
+      <c r="A53" s="213"/>
+      <c r="B53" s="214"/>
       <c r="C53" s="92"/>
       <c r="D53" s="98"/>
       <c r="E53" s="73"/>
@@ -6701,17 +6318,17 @@
       <c r="J53" s="80"/>
       <c r="K53" s="87"/>
       <c r="L53" s="88" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M53" s="109" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N53" s="83"/>
       <c r="O53" s="70"/>
     </row>
     <row r="54" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="210"/>
-      <c r="B54" s="211"/>
+      <c r="A54" s="213"/>
+      <c r="B54" s="214"/>
       <c r="C54" s="92"/>
       <c r="D54" s="98"/>
       <c r="E54" s="73"/>
@@ -6722,17 +6339,17 @@
       <c r="J54" s="80"/>
       <c r="K54" s="87"/>
       <c r="L54" s="88" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M54" s="109" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N54" s="83"/>
       <c r="O54" s="70"/>
     </row>
     <row r="55" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="205"/>
-      <c r="B55" s="206"/>
+      <c r="A55" s="200"/>
+      <c r="B55" s="201"/>
       <c r="C55" s="114"/>
       <c r="D55" s="115"/>
       <c r="E55" s="116"/>
@@ -6743,50 +6360,50 @@
       <c r="J55" s="115"/>
       <c r="K55" s="87"/>
       <c r="L55" s="114" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M55" s="117" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N55" s="83"/>
       <c r="O55" s="70"/>
     </row>
     <row r="56" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="201" t="s">
-        <v>138</v>
-      </c>
-      <c r="B56" s="202"/>
+      <c r="A56" s="196" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="197"/>
       <c r="C56" s="93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D56" s="94" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E56" s="76"/>
       <c r="F56" s="76"/>
       <c r="G56" s="77"/>
       <c r="H56" s="77"/>
       <c r="I56" s="79" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J56" s="80" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K56" s="96"/>
       <c r="L56" s="82" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M56" s="113" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N56" s="83"/>
       <c r="O56" s="70"/>
     </row>
     <row r="57" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="203"/>
-      <c r="B57" s="204"/>
+      <c r="A57" s="198"/>
+      <c r="B57" s="199"/>
       <c r="C57" s="79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D57" s="97">
         <v>36972</v>
@@ -6796,26 +6413,26 @@
       <c r="G57" s="73"/>
       <c r="H57" s="73"/>
       <c r="I57" s="79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J57" s="80" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K57" s="87"/>
       <c r="L57" s="88" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M57" s="109" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N57" s="83"/>
       <c r="O57" s="70"/>
     </row>
     <row r="58" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="203"/>
-      <c r="B58" s="204"/>
+      <c r="A58" s="198"/>
+      <c r="B58" s="199"/>
       <c r="C58" s="79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D58" s="97">
         <v>40218</v>
@@ -6825,29 +6442,29 @@
       <c r="G58" s="73"/>
       <c r="H58" s="73"/>
       <c r="I58" s="79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J58" s="80" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K58" s="87"/>
       <c r="L58" s="88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M58" s="109" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N58" s="83"/>
       <c r="O58" s="70"/>
     </row>
     <row r="59" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="203"/>
-      <c r="B59" s="204"/>
+      <c r="A59" s="198"/>
+      <c r="B59" s="199"/>
       <c r="C59" s="92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D59" s="98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E59" s="73"/>
       <c r="F59" s="73"/>
@@ -6857,17 +6474,17 @@
       <c r="J59" s="112"/>
       <c r="K59" s="87"/>
       <c r="L59" s="88" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M59" s="109" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N59" s="83"/>
       <c r="O59" s="70"/>
     </row>
     <row r="60" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="210"/>
-      <c r="B60" s="211"/>
+      <c r="A60" s="213"/>
+      <c r="B60" s="214"/>
       <c r="C60" s="92"/>
       <c r="D60" s="98"/>
       <c r="E60" s="73"/>
@@ -6878,17 +6495,17 @@
       <c r="J60" s="80"/>
       <c r="K60" s="87"/>
       <c r="L60" s="88" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M60" s="109" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N60" s="83"/>
       <c r="O60" s="70"/>
     </row>
     <row r="61" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="210"/>
-      <c r="B61" s="211"/>
+      <c r="A61" s="213"/>
+      <c r="B61" s="214"/>
       <c r="C61" s="92"/>
       <c r="D61" s="98"/>
       <c r="E61" s="73"/>
@@ -6899,17 +6516,17 @@
       <c r="J61" s="80"/>
       <c r="K61" s="87"/>
       <c r="L61" s="88" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M61" s="109" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N61" s="83"/>
       <c r="O61" s="70"/>
     </row>
     <row r="62" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="210"/>
-      <c r="B62" s="211"/>
+      <c r="A62" s="213"/>
+      <c r="B62" s="214"/>
       <c r="C62" s="92"/>
       <c r="D62" s="98"/>
       <c r="E62" s="73"/>
@@ -6920,7 +6537,7 @@
       <c r="J62" s="80"/>
       <c r="K62" s="87"/>
       <c r="L62" s="88" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M62" s="141">
         <v>1.5E-3</v>
@@ -6929,41 +6546,41 @@
       <c r="O62" s="70"/>
     </row>
     <row r="63" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="201" t="s">
-        <v>151</v>
-      </c>
-      <c r="B63" s="202"/>
+      <c r="A63" s="196" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="197"/>
       <c r="C63" s="93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D63" s="94" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E63" s="75"/>
       <c r="F63" s="76"/>
       <c r="G63" s="76"/>
       <c r="H63" s="94"/>
       <c r="I63" s="93" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J63" s="113" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K63" s="96"/>
       <c r="L63" s="82" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M63" s="78" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N63" s="83"/>
       <c r="O63" s="70"/>
     </row>
     <row r="64" spans="1:20" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="203"/>
-      <c r="B64" s="204"/>
+      <c r="A64" s="198"/>
+      <c r="B64" s="199"/>
       <c r="C64" s="79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D64" s="97">
         <v>37018</v>
@@ -6973,26 +6590,26 @@
       <c r="G64" s="74"/>
       <c r="H64" s="86"/>
       <c r="I64" s="79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J64" s="109" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K64" s="118"/>
       <c r="L64" s="88" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M64" s="80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N64" s="83"/>
       <c r="O64" s="70"/>
     </row>
     <row r="65" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="203"/>
-      <c r="B65" s="204"/>
+      <c r="A65" s="198"/>
+      <c r="B65" s="199"/>
       <c r="C65" s="79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D65" s="97">
         <v>40218</v>
@@ -7005,22 +6622,22 @@
       <c r="J65" s="109"/>
       <c r="K65" s="118"/>
       <c r="L65" s="88" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M65" s="80" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N65" s="83"/>
       <c r="O65" s="70"/>
     </row>
     <row r="66" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="203"/>
-      <c r="B66" s="204"/>
+      <c r="A66" s="198"/>
+      <c r="B66" s="199"/>
       <c r="C66" s="92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D66" s="98" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E66" s="73"/>
       <c r="F66" s="73"/>
@@ -7030,50 +6647,50 @@
       <c r="J66" s="109"/>
       <c r="K66" s="87"/>
       <c r="L66" s="88" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M66" s="80" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N66" s="83"/>
       <c r="O66" s="70"/>
     </row>
     <row r="67" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="201" t="s">
-        <v>161</v>
-      </c>
-      <c r="B67" s="202"/>
+      <c r="A67" s="196" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="197"/>
       <c r="C67" s="93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D67" s="94" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E67" s="75"/>
       <c r="F67" s="76"/>
       <c r="G67" s="76"/>
       <c r="H67" s="94"/>
-      <c r="I67" s="153" t="s">
-        <v>43</v>
-      </c>
-      <c r="J67" s="154" t="s">
-        <v>164</v>
+      <c r="I67" s="231" t="s">
+        <v>44</v>
+      </c>
+      <c r="J67" s="232" t="s">
+        <v>165</v>
       </c>
       <c r="K67" s="96"/>
       <c r="L67" s="82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M67" s="78" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N67" s="83"/>
       <c r="O67" s="70"/>
     </row>
     <row r="68" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="203"/>
-      <c r="B68" s="204"/>
+      <c r="A68" s="198"/>
+      <c r="B68" s="199"/>
       <c r="C68" s="79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D68" s="97">
         <v>38266</v>
@@ -7086,19 +6703,19 @@
       <c r="J68" s="109"/>
       <c r="K68" s="118"/>
       <c r="L68" s="88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M68" s="80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N68" s="83"/>
       <c r="O68" s="70"/>
     </row>
     <row r="69" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="203"/>
-      <c r="B69" s="204"/>
+      <c r="A69" s="198"/>
+      <c r="B69" s="199"/>
       <c r="C69" s="79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D69" s="97">
         <v>40218</v>
@@ -7111,22 +6728,22 @@
       <c r="J69" s="142"/>
       <c r="K69" s="87"/>
       <c r="L69" s="88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M69" s="80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N69" s="83"/>
       <c r="O69" s="70"/>
     </row>
     <row r="70" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="203"/>
-      <c r="B70" s="204"/>
+      <c r="A70" s="198"/>
+      <c r="B70" s="199"/>
       <c r="C70" s="92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D70" s="98" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E70" s="73"/>
       <c r="F70" s="73"/>
@@ -7136,58 +6753,58 @@
       <c r="J70" s="109"/>
       <c r="K70" s="87"/>
       <c r="L70" s="88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M70" s="80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N70" s="83"/>
       <c r="O70" s="70"/>
     </row>
     <row r="71" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="201" t="s">
-        <v>166</v>
-      </c>
-      <c r="B71" s="202"/>
+      <c r="A71" s="196" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" s="197"/>
       <c r="C71" s="93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D71" s="94" t="s">
-        <v>167</v>
-      </c>
-      <c r="E71" t="s" s="367">
-        <v>233</v>
-      </c>
-      <c r="F71" t="s" s="365">
-        <v>232</v>
+        <v>168</v>
+      </c>
+      <c r="E71" t="s" s="237">
+        <v>209</v>
+      </c>
+      <c r="F71" t="s" s="319">
+        <v>208</v>
       </c>
       <c r="G71" s="76"/>
       <c r="H71" s="94"/>
       <c r="I71" s="93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J71" s="78" t="s">
-        <v>168</v>
-      </c>
-      <c r="K71" t="s" s="363">
-        <v>228</v>
+        <v>169</v>
+      </c>
+      <c r="K71" t="s" s="318">
+        <v>18</v>
       </c>
       <c r="L71" s="82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M71" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="N71" t="s" s="363">
-        <v>228</v>
+        <v>170</v>
+      </c>
+      <c r="N71" t="s" s="318">
+        <v>18</v>
       </c>
       <c r="O71" s="70"/>
     </row>
     <row r="72" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="203"/>
-      <c r="B72" s="204"/>
+      <c r="A72" s="198"/>
+      <c r="B72" s="199"/>
       <c r="C72" s="79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D72" s="97">
         <v>40221</v>
@@ -7197,30 +6814,30 @@
       <c r="G72" s="74"/>
       <c r="H72" s="86"/>
       <c r="I72" s="79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J72" s="80" t="s">
-        <v>170</v>
-      </c>
-      <c r="K72" t="s" s="363">
-        <v>228</v>
+        <v>171</v>
+      </c>
+      <c r="K72" t="s" s="318">
+        <v>18</v>
       </c>
       <c r="L72" s="88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M72" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="N72" t="s" s="363">
-        <v>228</v>
+        <v>83</v>
+      </c>
+      <c r="N72" t="s" s="318">
+        <v>18</v>
       </c>
       <c r="O72" s="70"/>
     </row>
     <row r="73" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="203"/>
-      <c r="B73" s="204"/>
+      <c r="A73" s="198"/>
+      <c r="B73" s="199"/>
       <c r="C73" s="79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D73" s="97"/>
       <c r="E73" s="74"/>
@@ -7228,120 +6845,108 @@
       <c r="G73" s="74"/>
       <c r="H73" s="74"/>
       <c r="I73" s="79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J73" s="112" t="s">
-        <v>171</v>
-      </c>
-      <c r="K73" t="s" s="363">
-        <v>228</v>
+        <v>172</v>
+      </c>
+      <c r="K73" t="s" s="318">
+        <v>18</v>
       </c>
       <c r="L73" s="88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M73" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="N73" t="s" s="363">
-        <v>228</v>
+        <v>173</v>
+      </c>
+      <c r="N73" t="s" s="318">
+        <v>18</v>
       </c>
       <c r="O73" s="70"/>
     </row>
     <row r="74" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="203"/>
-      <c r="B74" s="204"/>
+      <c r="A74" s="198"/>
+      <c r="B74" s="199"/>
       <c r="C74" s="92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D74" s="98" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E74" s="74"/>
       <c r="F74" s="74"/>
       <c r="G74" s="74"/>
       <c r="H74" s="74"/>
-      <c r="I74" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="J74" s="112" t="s">
-        <v>185</v>
-      </c>
-      <c r="K74" t="s" s="363">
-        <v>227</v>
+      <c r="I74" s="202" t="s">
+        <v>175</v>
+      </c>
+      <c r="J74" s="203"/>
+      <c r="K74" t="s" s="318">
+        <v>204</v>
       </c>
       <c r="L74" s="88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M74" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="N74" t="s" s="363">
-        <v>228</v>
+        <v>86</v>
+      </c>
+      <c r="N74" t="s" s="318">
+        <v>18</v>
       </c>
       <c r="O74" s="70"/>
     </row>
     <row r="75" spans="1:15" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="205"/>
-      <c r="B75" s="206"/>
+      <c r="A75" s="200"/>
+      <c r="B75" s="201"/>
       <c r="C75" s="114"/>
       <c r="D75" s="115"/>
       <c r="E75" s="74"/>
       <c r="F75" s="74"/>
       <c r="G75" s="116"/>
       <c r="H75" s="116"/>
-      <c r="I75" s="207" t="s">
-        <v>174</v>
-      </c>
-      <c r="J75" s="208"/>
-      <c r="K75" t="s" s="363">
-        <v>228</v>
-      </c>
+      <c r="I75" s="79"/>
+      <c r="J75" s="80"/>
+      <c r="K75" s="146"/>
       <c r="L75" s="114"/>
       <c r="M75" s="115"/>
-      <c r="N75" t="s" s="363">
-        <v>228</v>
-      </c>
+      <c r="N75" s="83"/>
       <c r="O75" s="70"/>
     </row>
     <row r="76" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="201" t="s">
-        <v>175</v>
-      </c>
-      <c r="B76" s="202"/>
+      <c r="A76" s="196" t="s">
+        <v>176</v>
+      </c>
+      <c r="B76" s="197"/>
       <c r="C76" s="93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D76" s="94" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E76" s="75"/>
       <c r="F76" s="76"/>
       <c r="G76" s="76"/>
       <c r="H76" s="76"/>
       <c r="I76" s="93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J76" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="K76" t="s" s="363">
-        <v>228</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K76" s="143"/>
       <c r="L76" s="82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M76" s="147" t="s">
-        <v>177</v>
-      </c>
-      <c r="N76" t="s" s="363">
-        <v>228</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N76" s="144"/>
     </row>
     <row r="77" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="203"/>
-      <c r="B77" s="204"/>
+      <c r="A77" s="198"/>
+      <c r="B77" s="199"/>
       <c r="C77" s="79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D77" s="97">
         <v>40211</v>
@@ -7351,29 +6956,25 @@
       <c r="G77" s="74"/>
       <c r="H77" s="74"/>
       <c r="I77" s="79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J77" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="K77" t="s" s="363">
-        <v>228</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="K77" s="143"/>
       <c r="L77" s="88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M77" s="141">
         <v>1.35E-2</v>
       </c>
-      <c r="N77" t="s" s="363">
-        <v>228</v>
-      </c>
+      <c r="N77" s="144"/>
     </row>
     <row r="78" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="203"/>
-      <c r="B78" s="204"/>
+      <c r="A78" s="198"/>
+      <c r="B78" s="199"/>
       <c r="C78" s="79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D78" s="97"/>
       <c r="E78" s="85"/>
@@ -7381,85 +6982,73 @@
       <c r="G78" s="74"/>
       <c r="H78" s="74"/>
       <c r="I78" s="79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J78" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="K78" t="s" s="363">
-        <v>227</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="K78" s="143"/>
       <c r="L78" s="88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M78" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="N78" t="s" s="363">
-        <v>228</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N78" s="144"/>
     </row>
     <row r="79" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="203"/>
-      <c r="B79" s="204"/>
+      <c r="A79" s="198"/>
+      <c r="B79" s="199"/>
       <c r="C79" s="92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D79" s="98" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E79" s="85"/>
       <c r="F79" s="74"/>
       <c r="G79" s="74"/>
       <c r="H79" s="74"/>
       <c r="I79" s="79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J79" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="K79" t="s" s="363">
-        <v>228</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="K79" s="148"/>
       <c r="L79" s="88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M79" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="N79" t="s" s="363">
-        <v>228</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="N79" s="144"/>
     </row>
     <row r="80" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="203"/>
-      <c r="B80" s="204"/>
+      <c r="A80" s="198"/>
+      <c r="B80" s="199"/>
       <c r="C80" s="92"/>
       <c r="D80" s="98"/>
       <c r="E80" s="85"/>
       <c r="F80" s="74"/>
       <c r="G80" s="74"/>
       <c r="H80" s="74"/>
-      <c r="I80" s="207" t="s">
-        <v>174</v>
-      </c>
-      <c r="J80" s="209"/>
-      <c r="K80" t="s" s="363">
-        <v>228</v>
-      </c>
+      <c r="I80" s="202" t="s">
+        <v>175</v>
+      </c>
+      <c r="J80" s="204"/>
+      <c r="K80" s="149"/>
       <c r="L80" s="79" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M80" s="80" t="s">
-        <v>181</v>
-      </c>
-      <c r="N80" t="s" s="363">
-        <v>228</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N80" s="144"/>
     </row>
     <row r="81" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="205"/>
-      <c r="B81" s="206"/>
+      <c r="A81" s="200"/>
+      <c r="B81" s="201"/>
       <c r="C81" s="114"/>
       <c r="D81" s="115"/>
       <c r="E81" s="150"/>
@@ -7468,26 +7057,14 @@
       <c r="H81" s="116"/>
       <c r="I81" s="114"/>
       <c r="J81" s="115"/>
-      <c r="K81" t="s" s="363">
-        <v>228</v>
-      </c>
+      <c r="K81" s="152"/>
       <c r="L81" s="114" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M81" s="115" t="s">
-        <v>182</v>
-      </c>
-      <c r="N81" t="s" s="363">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="K82" t="s" s="363">
-        <v>227</v>
-      </c>
-      <c r="N82" t="s" s="363">
-        <v>228</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N81" s="60"/>
     </row>
     <row r="84" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -7499,23 +7076,23 @@
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A63:B66"/>
+    <mergeCell ref="A7:B10"/>
+    <mergeCell ref="A11:B14"/>
+    <mergeCell ref="A15:B21"/>
+    <mergeCell ref="A22:B25"/>
+    <mergeCell ref="A26:B29"/>
     <mergeCell ref="A30:B35"/>
     <mergeCell ref="A36:B39"/>
     <mergeCell ref="A40:B47"/>
     <mergeCell ref="A48:B55"/>
     <mergeCell ref="A56:B62"/>
-    <mergeCell ref="A7:B10"/>
-    <mergeCell ref="A11:B14"/>
-    <mergeCell ref="A15:B21"/>
-    <mergeCell ref="A22:B25"/>
-    <mergeCell ref="A26:B29"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="A67:B70"/>
     <mergeCell ref="A71:B75"/>
-    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I74:J74"/>
     <mergeCell ref="A76:B81"/>
     <mergeCell ref="I80:J80"/>
-    <mergeCell ref="A63:B66"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.15748031496062992" bottom="0.19685039370078741" header="0.15748031496062992" footer="0.19685039370078741"/>
   <pageSetup scale="88" orientation="portrait" r:id="rId1"/>
